--- a/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -218,12 +218,87 @@
   </si>
   <si>
     <t>Nº</t>
+  </si>
+  <si>
+    <t>Finland Veikkausliiga</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>Gnistan</t>
+  </si>
+  <si>
+    <t>Ilves</t>
+  </si>
+  <si>
+    <t>SJK</t>
+  </si>
+  <si>
+    <t>Mariehamn</t>
+  </si>
+  <si>
+    <t>Haka</t>
+  </si>
+  <si>
+    <t>KuPS</t>
+  </si>
+  <si>
+    <t>Inter Turku</t>
+  </si>
+  <si>
+    <t>Lahti</t>
+  </si>
+  <si>
+    <t>Oulu</t>
+  </si>
+  <si>
+    <t>EIF</t>
+  </si>
+  <si>
+    <t>VPS</t>
+  </si>
+  <si>
+    <t>HJK</t>
+  </si>
+  <si>
+    <t>['9', '35']</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>['9', '68']</t>
+  </si>
+  <si>
+    <t>['6', '9', '84']</t>
+  </si>
+  <si>
+    <t>['68']</t>
+  </si>
+  <si>
+    <t>['25', '66', '77']</t>
+  </si>
+  <si>
+    <t>['4']</t>
+  </si>
+  <si>
+    <t>['49']</t>
+  </si>
+  <si>
+    <t>['8', '18']</t>
+  </si>
+  <si>
+    <t>['90+7']</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -276,11 +351,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -575,7 +651,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP1"/>
+  <dimension ref="A1:BP7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -787,6 +863,1242 @@
         <v>66</v>
       </c>
     </row>
+    <row r="2" spans="1:68">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>7325331</v>
+      </c>
+      <c r="C2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="2">
+        <v>45388.375</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I2">
+        <v>2</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>3</v>
+      </c>
+      <c r="L2">
+        <v>2</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>3</v>
+      </c>
+      <c r="O2" t="s">
+        <v>82</v>
+      </c>
+      <c r="P2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q2">
+        <v>3.9</v>
+      </c>
+      <c r="R2">
+        <v>2.15</v>
+      </c>
+      <c r="S2">
+        <v>2.55</v>
+      </c>
+      <c r="T2">
+        <v>1.38</v>
+      </c>
+      <c r="U2">
+        <v>2.85</v>
+      </c>
+      <c r="V2">
+        <v>2.65</v>
+      </c>
+      <c r="W2">
+        <v>1.42</v>
+      </c>
+      <c r="X2">
+        <v>7</v>
+      </c>
+      <c r="Y2">
+        <v>1.1</v>
+      </c>
+      <c r="Z2">
+        <v>3.5</v>
+      </c>
+      <c r="AA2">
+        <v>3.5</v>
+      </c>
+      <c r="AB2">
+        <v>1.98</v>
+      </c>
+      <c r="AC2">
+        <v>1.04</v>
+      </c>
+      <c r="AD2">
+        <v>13</v>
+      </c>
+      <c r="AE2">
+        <v>1.25</v>
+      </c>
+      <c r="AF2">
+        <v>3.6</v>
+      </c>
+      <c r="AG2">
+        <v>1.75</v>
+      </c>
+      <c r="AH2">
+        <v>1.95</v>
+      </c>
+      <c r="AI2">
+        <v>1.68</v>
+      </c>
+      <c r="AJ2">
+        <v>2.05</v>
+      </c>
+      <c r="AK2">
+        <v>1.75</v>
+      </c>
+      <c r="AL2">
+        <v>1.25</v>
+      </c>
+      <c r="AM2">
+        <v>1.28</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>3</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>2</v>
+      </c>
+      <c r="AV2">
+        <v>4</v>
+      </c>
+      <c r="AW2">
+        <v>3</v>
+      </c>
+      <c r="AX2">
+        <v>5</v>
+      </c>
+      <c r="AY2">
+        <v>5</v>
+      </c>
+      <c r="AZ2">
+        <v>9</v>
+      </c>
+      <c r="BA2">
+        <v>1</v>
+      </c>
+      <c r="BB2">
+        <v>10</v>
+      </c>
+      <c r="BC2">
+        <v>11</v>
+      </c>
+      <c r="BD2">
+        <v>2.41</v>
+      </c>
+      <c r="BE2">
+        <v>8.5</v>
+      </c>
+      <c r="BF2">
+        <v>1.75</v>
+      </c>
+      <c r="BG2">
+        <v>1.23</v>
+      </c>
+      <c r="BH2">
+        <v>4.14</v>
+      </c>
+      <c r="BI2">
+        <v>1.44</v>
+      </c>
+      <c r="BJ2">
+        <v>2.81</v>
+      </c>
+      <c r="BK2">
+        <v>1.73</v>
+      </c>
+      <c r="BL2">
+        <v>2.11</v>
+      </c>
+      <c r="BM2">
+        <v>2</v>
+      </c>
+      <c r="BN2">
+        <v>1.73</v>
+      </c>
+      <c r="BO2">
+        <v>2.82</v>
+      </c>
+      <c r="BP2">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:68">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>7325332</v>
+      </c>
+      <c r="C3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="2">
+        <v>45388.45833333334</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H3" t="s">
+        <v>77</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3" t="s">
+        <v>83</v>
+      </c>
+      <c r="P3" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q3">
+        <v>2.23</v>
+      </c>
+      <c r="R3">
+        <v>2.27</v>
+      </c>
+      <c r="S3">
+        <v>4.9</v>
+      </c>
+      <c r="T3">
+        <v>1.35</v>
+      </c>
+      <c r="U3">
+        <v>3.05</v>
+      </c>
+      <c r="V3">
+        <v>2.61</v>
+      </c>
+      <c r="W3">
+        <v>1.46</v>
+      </c>
+      <c r="X3">
+        <v>6.35</v>
+      </c>
+      <c r="Y3">
+        <v>1.1</v>
+      </c>
+      <c r="Z3">
+        <v>1.67</v>
+      </c>
+      <c r="AA3">
+        <v>4.05</v>
+      </c>
+      <c r="AB3">
+        <v>4.9</v>
+      </c>
+      <c r="AC3">
+        <v>1.04</v>
+      </c>
+      <c r="AD3">
+        <v>10.25</v>
+      </c>
+      <c r="AE3">
+        <v>1.22</v>
+      </c>
+      <c r="AF3">
+        <v>3.66</v>
+      </c>
+      <c r="AG3">
+        <v>1.79</v>
+      </c>
+      <c r="AH3">
+        <v>2.02</v>
+      </c>
+      <c r="AI3">
+        <v>1.77</v>
+      </c>
+      <c r="AJ3">
+        <v>1.98</v>
+      </c>
+      <c r="AK3">
+        <v>1.18</v>
+      </c>
+      <c r="AL3">
+        <v>1.25</v>
+      </c>
+      <c r="AM3">
+        <v>2.18</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>1</v>
+      </c>
+      <c r="AQ3">
+        <v>1</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>5</v>
+      </c>
+      <c r="AV3">
+        <v>3</v>
+      </c>
+      <c r="AW3">
+        <v>8</v>
+      </c>
+      <c r="AX3">
+        <v>2</v>
+      </c>
+      <c r="AY3">
+        <v>13</v>
+      </c>
+      <c r="AZ3">
+        <v>5</v>
+      </c>
+      <c r="BA3">
+        <v>12</v>
+      </c>
+      <c r="BB3">
+        <v>3</v>
+      </c>
+      <c r="BC3">
+        <v>15</v>
+      </c>
+      <c r="BD3">
+        <v>1.51</v>
+      </c>
+      <c r="BE3">
+        <v>8.5</v>
+      </c>
+      <c r="BF3">
+        <v>3.07</v>
+      </c>
+      <c r="BG3">
+        <v>1.3</v>
+      </c>
+      <c r="BH3">
+        <v>3.54</v>
+      </c>
+      <c r="BI3">
+        <v>1.54</v>
+      </c>
+      <c r="BJ3">
+        <v>2.48</v>
+      </c>
+      <c r="BK3">
+        <v>1.73</v>
+      </c>
+      <c r="BL3">
+        <v>2</v>
+      </c>
+      <c r="BM3">
+        <v>2.1</v>
+      </c>
+      <c r="BN3">
+        <v>1.71</v>
+      </c>
+      <c r="BO3">
+        <v>3.26</v>
+      </c>
+      <c r="BP3">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:68">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>7325333</v>
+      </c>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="2">
+        <v>45388.45833333334</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H4" t="s">
+        <v>78</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>3</v>
+      </c>
+      <c r="O4" t="s">
+        <v>84</v>
+      </c>
+      <c r="P4" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q4">
+        <v>2.36</v>
+      </c>
+      <c r="R4">
+        <v>2.22</v>
+      </c>
+      <c r="S4">
+        <v>4.6</v>
+      </c>
+      <c r="T4">
+        <v>1.36</v>
+      </c>
+      <c r="U4">
+        <v>3</v>
+      </c>
+      <c r="V4">
+        <v>2.67</v>
+      </c>
+      <c r="W4">
+        <v>1.44</v>
+      </c>
+      <c r="X4">
+        <v>6.6</v>
+      </c>
+      <c r="Y4">
+        <v>1.09</v>
+      </c>
+      <c r="Z4">
+        <v>1.78</v>
+      </c>
+      <c r="AA4">
+        <v>3.8</v>
+      </c>
+      <c r="AB4">
+        <v>4.45</v>
+      </c>
+      <c r="AC4">
+        <v>1.01</v>
+      </c>
+      <c r="AD4">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AE4">
+        <v>1.24</v>
+      </c>
+      <c r="AF4">
+        <v>3.5</v>
+      </c>
+      <c r="AG4">
+        <v>1.86</v>
+      </c>
+      <c r="AH4">
+        <v>2</v>
+      </c>
+      <c r="AI4">
+        <v>1.75</v>
+      </c>
+      <c r="AJ4">
+        <v>2.01</v>
+      </c>
+      <c r="AK4">
+        <v>1.23</v>
+      </c>
+      <c r="AL4">
+        <v>1.27</v>
+      </c>
+      <c r="AM4">
+        <v>1.97</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>3</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>5</v>
+      </c>
+      <c r="AV4">
+        <v>4</v>
+      </c>
+      <c r="AW4">
+        <v>3</v>
+      </c>
+      <c r="AX4">
+        <v>1</v>
+      </c>
+      <c r="AY4">
+        <v>8</v>
+      </c>
+      <c r="AZ4">
+        <v>5</v>
+      </c>
+      <c r="BA4">
+        <v>5</v>
+      </c>
+      <c r="BB4">
+        <v>4</v>
+      </c>
+      <c r="BC4">
+        <v>9</v>
+      </c>
+      <c r="BD4">
+        <v>1.55</v>
+      </c>
+      <c r="BE4">
+        <v>8.5</v>
+      </c>
+      <c r="BF4">
+        <v>2.91</v>
+      </c>
+      <c r="BG4">
+        <v>1.26</v>
+      </c>
+      <c r="BH4">
+        <v>3.86</v>
+      </c>
+      <c r="BI4">
+        <v>1.48</v>
+      </c>
+      <c r="BJ4">
+        <v>2.65</v>
+      </c>
+      <c r="BK4">
+        <v>1.73</v>
+      </c>
+      <c r="BL4">
+        <v>2</v>
+      </c>
+      <c r="BM4">
+        <v>2.1</v>
+      </c>
+      <c r="BN4">
+        <v>1.71</v>
+      </c>
+      <c r="BO4">
+        <v>3</v>
+      </c>
+      <c r="BP4">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:68">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>7325334</v>
+      </c>
+      <c r="C5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="2">
+        <v>45388.45833333334</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H5" t="s">
+        <v>79</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="K5">
+        <v>4</v>
+      </c>
+      <c r="L5">
+        <v>3</v>
+      </c>
+      <c r="M5">
+        <v>2</v>
+      </c>
+      <c r="N5">
+        <v>5</v>
+      </c>
+      <c r="O5" t="s">
+        <v>85</v>
+      </c>
+      <c r="P5" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q5">
+        <v>2.25</v>
+      </c>
+      <c r="R5">
+        <v>2.25</v>
+      </c>
+      <c r="S5">
+        <v>4.5</v>
+      </c>
+      <c r="T5">
+        <v>1.32</v>
+      </c>
+      <c r="U5">
+        <v>3</v>
+      </c>
+      <c r="V5">
+        <v>2.5</v>
+      </c>
+      <c r="W5">
+        <v>1.45</v>
+      </c>
+      <c r="X5">
+        <v>6.25</v>
+      </c>
+      <c r="Y5">
+        <v>1.11</v>
+      </c>
+      <c r="Z5">
+        <v>1.75</v>
+      </c>
+      <c r="AA5">
+        <v>3.55</v>
+      </c>
+      <c r="AB5">
+        <v>4.3</v>
+      </c>
+      <c r="AC5">
+        <v>1.03</v>
+      </c>
+      <c r="AD5">
+        <v>14</v>
+      </c>
+      <c r="AE5">
+        <v>1.22</v>
+      </c>
+      <c r="AF5">
+        <v>3.8</v>
+      </c>
+      <c r="AG5">
+        <v>1.76</v>
+      </c>
+      <c r="AH5">
+        <v>2.07</v>
+      </c>
+      <c r="AI5">
+        <v>1.68</v>
+      </c>
+      <c r="AJ5">
+        <v>2.05</v>
+      </c>
+      <c r="AK5">
+        <v>1.19</v>
+      </c>
+      <c r="AL5">
+        <v>1.24</v>
+      </c>
+      <c r="AM5">
+        <v>2</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>3</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>3</v>
+      </c>
+      <c r="AW5">
+        <v>4</v>
+      </c>
+      <c r="AX5">
+        <v>3</v>
+      </c>
+      <c r="AY5">
+        <v>4</v>
+      </c>
+      <c r="AZ5">
+        <v>6</v>
+      </c>
+      <c r="BA5">
+        <v>4</v>
+      </c>
+      <c r="BB5">
+        <v>0</v>
+      </c>
+      <c r="BC5">
+        <v>4</v>
+      </c>
+      <c r="BD5">
+        <v>1.59</v>
+      </c>
+      <c r="BE5">
+        <v>8.5</v>
+      </c>
+      <c r="BF5">
+        <v>2.89</v>
+      </c>
+      <c r="BG5">
+        <v>1.3</v>
+      </c>
+      <c r="BH5">
+        <v>3.56</v>
+      </c>
+      <c r="BI5">
+        <v>1.54</v>
+      </c>
+      <c r="BJ5">
+        <v>2.49</v>
+      </c>
+      <c r="BK5">
+        <v>1.73</v>
+      </c>
+      <c r="BL5">
+        <v>2</v>
+      </c>
+      <c r="BM5">
+        <v>2.39</v>
+      </c>
+      <c r="BN5">
+        <v>1.58</v>
+      </c>
+      <c r="BO5">
+        <v>3.24</v>
+      </c>
+      <c r="BP5">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:68">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>7325335</v>
+      </c>
+      <c r="C6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="2">
+        <v>45388.45833333334</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>2</v>
+      </c>
+      <c r="N6">
+        <v>3</v>
+      </c>
+      <c r="O6" t="s">
+        <v>86</v>
+      </c>
+      <c r="P6" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q6">
+        <v>2.9</v>
+      </c>
+      <c r="R6">
+        <v>2.11</v>
+      </c>
+      <c r="S6">
+        <v>3.65</v>
+      </c>
+      <c r="T6">
+        <v>1.41</v>
+      </c>
+      <c r="U6">
+        <v>2.78</v>
+      </c>
+      <c r="V6">
+        <v>2.86</v>
+      </c>
+      <c r="W6">
+        <v>1.39</v>
+      </c>
+      <c r="X6">
+        <v>7.4</v>
+      </c>
+      <c r="Y6">
+        <v>1.07</v>
+      </c>
+      <c r="Z6">
+        <v>2.44</v>
+      </c>
+      <c r="AA6">
+        <v>3.35</v>
+      </c>
+      <c r="AB6">
+        <v>2.94</v>
+      </c>
+      <c r="AC6">
+        <v>1.02</v>
+      </c>
+      <c r="AD6">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AE6">
+        <v>1.28</v>
+      </c>
+      <c r="AF6">
+        <v>3.18</v>
+      </c>
+      <c r="AG6">
+        <v>2.03</v>
+      </c>
+      <c r="AH6">
+        <v>1.83</v>
+      </c>
+      <c r="AI6">
+        <v>1.77</v>
+      </c>
+      <c r="AJ6">
+        <v>1.98</v>
+      </c>
+      <c r="AK6">
+        <v>1.39</v>
+      </c>
+      <c r="AL6">
+        <v>1.32</v>
+      </c>
+      <c r="AM6">
+        <v>1.61</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>3</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>6</v>
+      </c>
+      <c r="AV6">
+        <v>4</v>
+      </c>
+      <c r="AW6">
+        <v>7</v>
+      </c>
+      <c r="AX6">
+        <v>1</v>
+      </c>
+      <c r="AY6">
+        <v>13</v>
+      </c>
+      <c r="AZ6">
+        <v>5</v>
+      </c>
+      <c r="BA6">
+        <v>6</v>
+      </c>
+      <c r="BB6">
+        <v>4</v>
+      </c>
+      <c r="BC6">
+        <v>10</v>
+      </c>
+      <c r="BD6">
+        <v>1.85</v>
+      </c>
+      <c r="BE6">
+        <v>8</v>
+      </c>
+      <c r="BF6">
+        <v>2.28</v>
+      </c>
+      <c r="BG6">
+        <v>1.24</v>
+      </c>
+      <c r="BH6">
+        <v>4.08</v>
+      </c>
+      <c r="BI6">
+        <v>1.44</v>
+      </c>
+      <c r="BJ6">
+        <v>2.78</v>
+      </c>
+      <c r="BK6">
+        <v>1.58</v>
+      </c>
+      <c r="BL6">
+        <v>2.32</v>
+      </c>
+      <c r="BM6">
+        <v>2</v>
+      </c>
+      <c r="BN6">
+        <v>1.73</v>
+      </c>
+      <c r="BO6">
+        <v>2.44</v>
+      </c>
+      <c r="BP6">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:68">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>7325336</v>
+      </c>
+      <c r="C7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45388.54166666666</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H7" t="s">
+        <v>81</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>3</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>4</v>
+      </c>
+      <c r="O7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P7" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q7">
+        <v>3.92</v>
+      </c>
+      <c r="R7">
+        <v>2.09</v>
+      </c>
+      <c r="S7">
+        <v>2.78</v>
+      </c>
+      <c r="T7">
+        <v>1.43</v>
+      </c>
+      <c r="U7">
+        <v>2.71</v>
+      </c>
+      <c r="V7">
+        <v>3</v>
+      </c>
+      <c r="W7">
+        <v>1.36</v>
+      </c>
+      <c r="X7">
+        <v>7.7</v>
+      </c>
+      <c r="Y7">
+        <v>1.06</v>
+      </c>
+      <c r="Z7">
+        <v>3.31</v>
+      </c>
+      <c r="AA7">
+        <v>3.41</v>
+      </c>
+      <c r="AB7">
+        <v>2.25</v>
+      </c>
+      <c r="AC7">
+        <v>1.03</v>
+      </c>
+      <c r="AD7">
+        <v>8.4</v>
+      </c>
+      <c r="AE7">
+        <v>1.31</v>
+      </c>
+      <c r="AF7">
+        <v>3.04</v>
+      </c>
+      <c r="AG7">
+        <v>2</v>
+      </c>
+      <c r="AH7">
+        <v>1.7</v>
+      </c>
+      <c r="AI7">
+        <v>1.83</v>
+      </c>
+      <c r="AJ7">
+        <v>1.91</v>
+      </c>
+      <c r="AK7">
+        <v>1.68</v>
+      </c>
+      <c r="AL7">
+        <v>1.32</v>
+      </c>
+      <c r="AM7">
+        <v>1.33</v>
+      </c>
+      <c r="AN7">
+        <v>0</v>
+      </c>
+      <c r="AO7">
+        <v>0</v>
+      </c>
+      <c r="AP7">
+        <v>3</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <v>0</v>
+      </c>
+      <c r="AT7">
+        <v>0</v>
+      </c>
+      <c r="AU7">
+        <v>4</v>
+      </c>
+      <c r="AV7">
+        <v>6</v>
+      </c>
+      <c r="AW7">
+        <v>2</v>
+      </c>
+      <c r="AX7">
+        <v>1</v>
+      </c>
+      <c r="AY7">
+        <v>6</v>
+      </c>
+      <c r="AZ7">
+        <v>7</v>
+      </c>
+      <c r="BA7">
+        <v>8</v>
+      </c>
+      <c r="BB7">
+        <v>5</v>
+      </c>
+      <c r="BC7">
+        <v>13</v>
+      </c>
+      <c r="BD7">
+        <v>2.1</v>
+      </c>
+      <c r="BE7">
+        <v>8</v>
+      </c>
+      <c r="BF7">
+        <v>1.95</v>
+      </c>
+      <c r="BG7">
+        <v>1.29</v>
+      </c>
+      <c r="BH7">
+        <v>3.58</v>
+      </c>
+      <c r="BI7">
+        <v>1.55</v>
+      </c>
+      <c r="BJ7">
+        <v>2.36</v>
+      </c>
+      <c r="BK7">
+        <v>1.73</v>
+      </c>
+      <c r="BL7">
+        <v>2</v>
+      </c>
+      <c r="BM7">
+        <v>2.43</v>
+      </c>
+      <c r="BN7">
+        <v>1.52</v>
+      </c>
+      <c r="BO7">
+        <v>3.22</v>
+      </c>
+      <c r="BP7">
+        <v>1.35</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
@@ -1215,13 +1215,13 @@
         <v>3</v>
       </c>
       <c r="AW3">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="AX3">
         <v>2</v>
       </c>
       <c r="AY3">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AZ3">
         <v>5</v>
@@ -1415,31 +1415,31 @@
         <v>0</v>
       </c>
       <c r="AU4">
+        <v>6</v>
+      </c>
+      <c r="AV4">
+        <v>3</v>
+      </c>
+      <c r="AW4">
+        <v>9</v>
+      </c>
+      <c r="AX4">
         <v>5</v>
       </c>
-      <c r="AV4">
-        <v>4</v>
-      </c>
-      <c r="AW4">
-        <v>3</v>
-      </c>
-      <c r="AX4">
-        <v>1</v>
-      </c>
       <c r="AY4">
+        <v>15</v>
+      </c>
+      <c r="AZ4">
         <v>8</v>
       </c>
-      <c r="AZ4">
-        <v>5</v>
-      </c>
       <c r="BA4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB4">
         <v>4</v>
       </c>
       <c r="BC4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD4">
         <v>1.55</v>
@@ -1624,16 +1624,16 @@
         <v>0</v>
       </c>
       <c r="AV5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW5">
+        <v>7</v>
+      </c>
+      <c r="AX5">
         <v>4</v>
       </c>
-      <c r="AX5">
-        <v>3</v>
-      </c>
       <c r="AY5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AZ5">
         <v>6</v>
@@ -1827,22 +1827,22 @@
         <v>0</v>
       </c>
       <c r="AU6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AV6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AW6">
         <v>7</v>
       </c>
       <c r="AX6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY6">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AZ6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BA6">
         <v>6</v>

--- a/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
@@ -2033,22 +2033,22 @@
         <v>0</v>
       </c>
       <c r="AU7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AW7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX7">
         <v>1</v>
       </c>
       <c r="AY7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AZ7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA7">
         <v>8</v>

--- a/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="97">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -244,6 +244,12 @@
     <t>KuPS</t>
   </si>
   <si>
+    <t>HJK</t>
+  </si>
+  <si>
+    <t>VPS</t>
+  </si>
+  <si>
     <t>Inter Turku</t>
   </si>
   <si>
@@ -256,12 +262,6 @@
     <t>EIF</t>
   </si>
   <si>
-    <t>VPS</t>
-  </si>
-  <si>
-    <t>HJK</t>
-  </si>
-  <si>
     <t>['9', '35']</t>
   </si>
   <si>
@@ -280,6 +280,15 @@
     <t>['25', '66', '77']</t>
   </si>
   <si>
+    <t>['20', '44', '57', '69']</t>
+  </si>
+  <si>
+    <t>['4', '46']</t>
+  </si>
+  <si>
+    <t>['46']</t>
+  </si>
+  <si>
     <t>['4']</t>
   </si>
   <si>
@@ -290,6 +299,12 @@
   </si>
   <si>
     <t>['90+7']</t>
+  </si>
+  <si>
+    <t>['78']</t>
+  </si>
+  <si>
+    <t>['65']</t>
   </si>
 </sst>
 </file>
@@ -651,7 +666,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP7"/>
+  <dimension ref="A1:BP10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -886,7 +901,7 @@
         <v>70</v>
       </c>
       <c r="H2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I2">
         <v>2</v>
@@ -910,7 +925,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Q2">
         <v>3.9</v>
@@ -1092,7 +1107,7 @@
         <v>71</v>
       </c>
       <c r="H3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1197,7 +1212,7 @@
         <v>1</v>
       </c>
       <c r="AQ3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1298,7 +1313,7 @@
         <v>72</v>
       </c>
       <c r="H4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -1322,7 +1337,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="Q4">
         <v>2.36</v>
@@ -1504,7 +1519,7 @@
         <v>73</v>
       </c>
       <c r="H5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I5">
         <v>2</v>
@@ -1528,7 +1543,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="Q5">
         <v>2.25</v>
@@ -1710,7 +1725,7 @@
         <v>74</v>
       </c>
       <c r="H6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1734,7 +1749,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="Q6">
         <v>2.9</v>
@@ -1812,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AQ6">
         <v>3</v>
@@ -1916,7 +1931,7 @@
         <v>75</v>
       </c>
       <c r="H7" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -1940,7 +1955,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="Q7">
         <v>3.92</v>
@@ -2096,6 +2111,624 @@
         <v>3.22</v>
       </c>
       <c r="BP7">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:68">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>7325337</v>
+      </c>
+      <c r="C8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="2">
+        <v>45393.5</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H8" t="s">
+        <v>79</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>4</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>4</v>
+      </c>
+      <c r="O8" t="s">
+        <v>88</v>
+      </c>
+      <c r="P8" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q8">
+        <v>1.9</v>
+      </c>
+      <c r="R8">
+        <v>2.4</v>
+      </c>
+      <c r="S8">
+        <v>5.75</v>
+      </c>
+      <c r="T8">
+        <v>1.3</v>
+      </c>
+      <c r="U8">
+        <v>3.2</v>
+      </c>
+      <c r="V8">
+        <v>2.4</v>
+      </c>
+      <c r="W8">
+        <v>1.5</v>
+      </c>
+      <c r="X8">
+        <v>5.25</v>
+      </c>
+      <c r="Y8">
+        <v>1.12</v>
+      </c>
+      <c r="Z8">
+        <v>1.47</v>
+      </c>
+      <c r="AA8">
+        <v>4.3</v>
+      </c>
+      <c r="AB8">
+        <v>6</v>
+      </c>
+      <c r="AC8">
+        <v>1.03</v>
+      </c>
+      <c r="AD8">
+        <v>10</v>
+      </c>
+      <c r="AE8">
+        <v>1.2</v>
+      </c>
+      <c r="AF8">
+        <v>4.2</v>
+      </c>
+      <c r="AG8">
+        <v>1.67</v>
+      </c>
+      <c r="AH8">
+        <v>2.2</v>
+      </c>
+      <c r="AI8">
+        <v>1.8</v>
+      </c>
+      <c r="AJ8">
+        <v>1.85</v>
+      </c>
+      <c r="AK8">
+        <v>1.06</v>
+      </c>
+      <c r="AL8">
+        <v>1.14</v>
+      </c>
+      <c r="AM8">
+        <v>2.8</v>
+      </c>
+      <c r="AN8">
+        <v>0</v>
+      </c>
+      <c r="AO8">
+        <v>1</v>
+      </c>
+      <c r="AP8">
+        <v>3</v>
+      </c>
+      <c r="AQ8">
+        <v>0.5</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
+        <v>0.73</v>
+      </c>
+      <c r="AT8">
+        <v>0.73</v>
+      </c>
+      <c r="AU8">
+        <v>5</v>
+      </c>
+      <c r="AV8">
+        <v>2</v>
+      </c>
+      <c r="AW8">
+        <v>6</v>
+      </c>
+      <c r="AX8">
+        <v>9</v>
+      </c>
+      <c r="AY8">
+        <v>11</v>
+      </c>
+      <c r="AZ8">
+        <v>11</v>
+      </c>
+      <c r="BA8">
+        <v>4</v>
+      </c>
+      <c r="BB8">
+        <v>4</v>
+      </c>
+      <c r="BC8">
+        <v>8</v>
+      </c>
+      <c r="BD8">
+        <v>1.5</v>
+      </c>
+      <c r="BE8">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="BF8">
+        <v>3.08</v>
+      </c>
+      <c r="BG8">
+        <v>1.18</v>
+      </c>
+      <c r="BH8">
+        <v>4.1</v>
+      </c>
+      <c r="BI8">
+        <v>1.36</v>
+      </c>
+      <c r="BJ8">
+        <v>2.79</v>
+      </c>
+      <c r="BK8">
+        <v>1.68</v>
+      </c>
+      <c r="BL8">
+        <v>2.13</v>
+      </c>
+      <c r="BM8">
+        <v>2.1</v>
+      </c>
+      <c r="BN8">
+        <v>1.7</v>
+      </c>
+      <c r="BO8">
+        <v>2.72</v>
+      </c>
+      <c r="BP8">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:68">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>7325338</v>
+      </c>
+      <c r="C9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="2">
+        <v>45394.5</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9" t="s">
+        <v>74</v>
+      </c>
+      <c r="H9" t="s">
+        <v>81</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>2</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>3</v>
+      </c>
+      <c r="O9" t="s">
+        <v>89</v>
+      </c>
+      <c r="P9" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q9">
+        <v>2.25</v>
+      </c>
+      <c r="R9">
+        <v>2.25</v>
+      </c>
+      <c r="S9">
+        <v>5</v>
+      </c>
+      <c r="T9">
+        <v>1.36</v>
+      </c>
+      <c r="U9">
+        <v>3</v>
+      </c>
+      <c r="V9">
+        <v>2.63</v>
+      </c>
+      <c r="W9">
+        <v>1.44</v>
+      </c>
+      <c r="X9">
+        <v>7</v>
+      </c>
+      <c r="Y9">
+        <v>1.1</v>
+      </c>
+      <c r="Z9">
+        <v>1.77</v>
+      </c>
+      <c r="AA9">
+        <v>3.89</v>
+      </c>
+      <c r="AB9">
+        <v>4.45</v>
+      </c>
+      <c r="AC9">
+        <v>1.05</v>
+      </c>
+      <c r="AD9">
+        <v>11</v>
+      </c>
+      <c r="AE9">
+        <v>1.25</v>
+      </c>
+      <c r="AF9">
+        <v>3.75</v>
+      </c>
+      <c r="AG9">
+        <v>1.81</v>
+      </c>
+      <c r="AH9">
+        <v>2</v>
+      </c>
+      <c r="AI9">
+        <v>1.8</v>
+      </c>
+      <c r="AJ9">
+        <v>1.95</v>
+      </c>
+      <c r="AK9">
+        <v>1.17</v>
+      </c>
+      <c r="AL9">
+        <v>1.25</v>
+      </c>
+      <c r="AM9">
+        <v>2.1</v>
+      </c>
+      <c r="AN9">
+        <v>0</v>
+      </c>
+      <c r="AO9">
+        <v>0</v>
+      </c>
+      <c r="AP9">
+        <v>1.5</v>
+      </c>
+      <c r="AQ9">
+        <v>0</v>
+      </c>
+      <c r="AR9">
+        <v>1.39</v>
+      </c>
+      <c r="AS9">
+        <v>0.98</v>
+      </c>
+      <c r="AT9">
+        <v>2.37</v>
+      </c>
+      <c r="AU9">
+        <v>3</v>
+      </c>
+      <c r="AV9">
+        <v>5</v>
+      </c>
+      <c r="AW9">
+        <v>2</v>
+      </c>
+      <c r="AX9">
+        <v>6</v>
+      </c>
+      <c r="AY9">
+        <v>5</v>
+      </c>
+      <c r="AZ9">
+        <v>11</v>
+      </c>
+      <c r="BA9">
+        <v>1</v>
+      </c>
+      <c r="BB9">
+        <v>4</v>
+      </c>
+      <c r="BC9">
+        <v>5</v>
+      </c>
+      <c r="BD9">
+        <v>1.72</v>
+      </c>
+      <c r="BE9">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF9">
+        <v>2.52</v>
+      </c>
+      <c r="BG9">
+        <v>1.33</v>
+      </c>
+      <c r="BH9">
+        <v>2.91</v>
+      </c>
+      <c r="BI9">
+        <v>1.64</v>
+      </c>
+      <c r="BJ9">
+        <v>2.12</v>
+      </c>
+      <c r="BK9">
+        <v>2.09</v>
+      </c>
+      <c r="BL9">
+        <v>1.69</v>
+      </c>
+      <c r="BM9">
+        <v>2.76</v>
+      </c>
+      <c r="BN9">
+        <v>1.39</v>
+      </c>
+      <c r="BO9">
+        <v>3.84</v>
+      </c>
+      <c r="BP9">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:68">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>7325339</v>
+      </c>
+      <c r="C10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="2">
+        <v>45394.54166666666</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10" t="s">
+        <v>77</v>
+      </c>
+      <c r="H10" t="s">
+        <v>72</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>2</v>
+      </c>
+      <c r="O10" t="s">
+        <v>90</v>
+      </c>
+      <c r="P10" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q10">
+        <v>3</v>
+      </c>
+      <c r="R10">
+        <v>2.15</v>
+      </c>
+      <c r="S10">
+        <v>3.3</v>
+      </c>
+      <c r="T10">
+        <v>1.36</v>
+      </c>
+      <c r="U10">
+        <v>2.88</v>
+      </c>
+      <c r="V10">
+        <v>2.62</v>
+      </c>
+      <c r="W10">
+        <v>1.42</v>
+      </c>
+      <c r="X10">
+        <v>6</v>
+      </c>
+      <c r="Y10">
+        <v>1.09</v>
+      </c>
+      <c r="Z10">
+        <v>2.25</v>
+      </c>
+      <c r="AA10">
+        <v>3.48</v>
+      </c>
+      <c r="AB10">
+        <v>3.19</v>
+      </c>
+      <c r="AC10">
+        <v>1.03</v>
+      </c>
+      <c r="AD10">
+        <v>9</v>
+      </c>
+      <c r="AE10">
+        <v>1.29</v>
+      </c>
+      <c r="AF10">
+        <v>3.4</v>
+      </c>
+      <c r="AG10">
+        <v>1.84</v>
+      </c>
+      <c r="AH10">
+        <v>2.02</v>
+      </c>
+      <c r="AI10">
+        <v>1.67</v>
+      </c>
+      <c r="AJ10">
+        <v>2.1</v>
+      </c>
+      <c r="AK10">
+        <v>1.48</v>
+      </c>
+      <c r="AL10">
+        <v>1.3</v>
+      </c>
+      <c r="AM10">
+        <v>1.53</v>
+      </c>
+      <c r="AN10">
+        <v>0</v>
+      </c>
+      <c r="AO10">
+        <v>0</v>
+      </c>
+      <c r="AP10">
+        <v>1</v>
+      </c>
+      <c r="AQ10">
+        <v>1</v>
+      </c>
+      <c r="AR10">
+        <v>0</v>
+      </c>
+      <c r="AS10">
+        <v>0</v>
+      </c>
+      <c r="AT10">
+        <v>0</v>
+      </c>
+      <c r="AU10">
+        <v>4</v>
+      </c>
+      <c r="AV10">
+        <v>2</v>
+      </c>
+      <c r="AW10">
+        <v>5</v>
+      </c>
+      <c r="AX10">
+        <v>6</v>
+      </c>
+      <c r="AY10">
+        <v>9</v>
+      </c>
+      <c r="AZ10">
+        <v>8</v>
+      </c>
+      <c r="BA10">
+        <v>3</v>
+      </c>
+      <c r="BB10">
+        <v>7</v>
+      </c>
+      <c r="BC10">
+        <v>10</v>
+      </c>
+      <c r="BD10">
+        <v>2.11</v>
+      </c>
+      <c r="BE10">
+        <v>8.9</v>
+      </c>
+      <c r="BF10">
+        <v>1.97</v>
+      </c>
+      <c r="BG10">
+        <v>1.2</v>
+      </c>
+      <c r="BH10">
+        <v>3.84</v>
+      </c>
+      <c r="BI10">
+        <v>1.41</v>
+      </c>
+      <c r="BJ10">
+        <v>2.69</v>
+      </c>
+      <c r="BK10">
+        <v>1.73</v>
+      </c>
+      <c r="BL10">
+        <v>2.04</v>
+      </c>
+      <c r="BM10">
+        <v>2.17</v>
+      </c>
+      <c r="BN10">
+        <v>1.61</v>
+      </c>
+      <c r="BO10">
+        <v>2.84</v>
+      </c>
+      <c r="BP10">
         <v>1.35</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="101">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -289,6 +289,12 @@
     <t>['46']</t>
   </si>
   <si>
+    <t>['13', '60', '78']</t>
+  </si>
+  <si>
+    <t>['36', '40', '66', '81']</t>
+  </si>
+  <si>
     <t>['4']</t>
   </si>
   <si>
@@ -305,6 +311,12 @@
   </si>
   <si>
     <t>['65']</t>
+  </si>
+  <si>
+    <t>['3', '69', '90+6']</t>
+  </si>
+  <si>
+    <t>['60', '68', '73', '78', '85', '90+4']</t>
   </si>
 </sst>
 </file>
@@ -666,7 +678,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP10"/>
+  <dimension ref="A1:BP12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -925,7 +937,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="Q2">
         <v>3.9</v>
@@ -1209,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AQ3">
         <v>0.5</v>
@@ -1337,7 +1349,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Q4">
         <v>2.36</v>
@@ -1418,7 +1430,7 @@
         <v>3</v>
       </c>
       <c r="AQ4">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1543,7 +1555,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q5">
         <v>2.25</v>
@@ -1749,7 +1761,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q6">
         <v>2.9</v>
@@ -1955,7 +1967,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q7">
         <v>3.92</v>
@@ -2254,19 +2266,19 @@
         <v>0.73</v>
       </c>
       <c r="AU8">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AV8">
         <v>2</v>
       </c>
       <c r="AW8">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="AX8">
         <v>9</v>
       </c>
       <c r="AY8">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="AZ8">
         <v>11</v>
@@ -2367,7 +2379,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Q9">
         <v>2.25</v>
@@ -2573,7 +2585,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -2666,31 +2678,31 @@
         <v>0</v>
       </c>
       <c r="AU10">
+        <v>6</v>
+      </c>
+      <c r="AV10">
+        <v>3</v>
+      </c>
+      <c r="AW10">
+        <v>8</v>
+      </c>
+      <c r="AX10">
+        <v>7</v>
+      </c>
+      <c r="AY10">
+        <v>14</v>
+      </c>
+      <c r="AZ10">
+        <v>10</v>
+      </c>
+      <c r="BA10">
         <v>4</v>
-      </c>
-      <c r="AV10">
-        <v>2</v>
-      </c>
-      <c r="AW10">
-        <v>5</v>
-      </c>
-      <c r="AX10">
-        <v>6</v>
-      </c>
-      <c r="AY10">
-        <v>9</v>
-      </c>
-      <c r="AZ10">
-        <v>8</v>
-      </c>
-      <c r="BA10">
-        <v>3</v>
       </c>
       <c r="BB10">
         <v>7</v>
       </c>
       <c r="BC10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD10">
         <v>2.11</v>
@@ -2730,6 +2742,418 @@
       </c>
       <c r="BP10">
         <v>1.35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:68">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>7325340</v>
+      </c>
+      <c r="C11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="2">
+        <v>45394.58333333334</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11" t="s">
+        <v>80</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>3</v>
+      </c>
+      <c r="M11">
+        <v>3</v>
+      </c>
+      <c r="N11">
+        <v>6</v>
+      </c>
+      <c r="O11" t="s">
+        <v>91</v>
+      </c>
+      <c r="P11" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q11">
+        <v>2.25</v>
+      </c>
+      <c r="R11">
+        <v>2.3</v>
+      </c>
+      <c r="S11">
+        <v>4.5</v>
+      </c>
+      <c r="T11">
+        <v>1.3</v>
+      </c>
+      <c r="U11">
+        <v>3.2</v>
+      </c>
+      <c r="V11">
+        <v>2.4</v>
+      </c>
+      <c r="W11">
+        <v>1.5</v>
+      </c>
+      <c r="X11">
+        <v>5.5</v>
+      </c>
+      <c r="Y11">
+        <v>1.11</v>
+      </c>
+      <c r="Z11">
+        <v>1.7</v>
+      </c>
+      <c r="AA11">
+        <v>3.6</v>
+      </c>
+      <c r="AB11">
+        <v>4.1</v>
+      </c>
+      <c r="AC11">
+        <v>1.02</v>
+      </c>
+      <c r="AD11">
+        <v>10</v>
+      </c>
+      <c r="AE11">
+        <v>1.2</v>
+      </c>
+      <c r="AF11">
+        <v>4</v>
+      </c>
+      <c r="AG11">
+        <v>1.65</v>
+      </c>
+      <c r="AH11">
+        <v>2.1</v>
+      </c>
+      <c r="AI11">
+        <v>1.65</v>
+      </c>
+      <c r="AJ11">
+        <v>2.1</v>
+      </c>
+      <c r="AK11">
+        <v>1.22</v>
+      </c>
+      <c r="AL11">
+        <v>1.25</v>
+      </c>
+      <c r="AM11">
+        <v>2.1</v>
+      </c>
+      <c r="AN11">
+        <v>0</v>
+      </c>
+      <c r="AO11">
+        <v>0</v>
+      </c>
+      <c r="AP11">
+        <v>1</v>
+      </c>
+      <c r="AQ11">
+        <v>0.5</v>
+      </c>
+      <c r="AR11">
+        <v>0</v>
+      </c>
+      <c r="AS11">
+        <v>1.24</v>
+      </c>
+      <c r="AT11">
+        <v>1.24</v>
+      </c>
+      <c r="AU11">
+        <v>6</v>
+      </c>
+      <c r="AV11">
+        <v>6</v>
+      </c>
+      <c r="AW11">
+        <v>4</v>
+      </c>
+      <c r="AX11">
+        <v>7</v>
+      </c>
+      <c r="AY11">
+        <v>10</v>
+      </c>
+      <c r="AZ11">
+        <v>13</v>
+      </c>
+      <c r="BA11">
+        <v>5</v>
+      </c>
+      <c r="BB11">
+        <v>4</v>
+      </c>
+      <c r="BC11">
+        <v>9</v>
+      </c>
+      <c r="BD11">
+        <v>1.5</v>
+      </c>
+      <c r="BE11">
+        <v>9.4</v>
+      </c>
+      <c r="BF11">
+        <v>3.12</v>
+      </c>
+      <c r="BG11">
+        <v>1.24</v>
+      </c>
+      <c r="BH11">
+        <v>3.48</v>
+      </c>
+      <c r="BI11">
+        <v>1.47</v>
+      </c>
+      <c r="BJ11">
+        <v>2.49</v>
+      </c>
+      <c r="BK11">
+        <v>1.83</v>
+      </c>
+      <c r="BL11">
+        <v>1.91</v>
+      </c>
+      <c r="BM11">
+        <v>2.33</v>
+      </c>
+      <c r="BN11">
+        <v>1.53</v>
+      </c>
+      <c r="BO11">
+        <v>3.08</v>
+      </c>
+      <c r="BP11">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:68">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>7325341</v>
+      </c>
+      <c r="C12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="2">
+        <v>45395.33333333334</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12" t="s">
+        <v>71</v>
+      </c>
+      <c r="H12" t="s">
+        <v>70</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>4</v>
+      </c>
+      <c r="M12">
+        <v>6</v>
+      </c>
+      <c r="N12">
+        <v>10</v>
+      </c>
+      <c r="O12" t="s">
+        <v>92</v>
+      </c>
+      <c r="P12" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q12">
+        <v>2.38</v>
+      </c>
+      <c r="R12">
+        <v>2.2</v>
+      </c>
+      <c r="S12">
+        <v>5</v>
+      </c>
+      <c r="T12">
+        <v>1.4</v>
+      </c>
+      <c r="U12">
+        <v>2.75</v>
+      </c>
+      <c r="V12">
+        <v>2.75</v>
+      </c>
+      <c r="W12">
+        <v>1.4</v>
+      </c>
+      <c r="X12">
+        <v>8</v>
+      </c>
+      <c r="Y12">
+        <v>1.08</v>
+      </c>
+      <c r="Z12">
+        <v>1.73</v>
+      </c>
+      <c r="AA12">
+        <v>3.5</v>
+      </c>
+      <c r="AB12">
+        <v>4.5</v>
+      </c>
+      <c r="AC12">
+        <v>1.05</v>
+      </c>
+      <c r="AD12">
+        <v>8.5</v>
+      </c>
+      <c r="AE12">
+        <v>1.3</v>
+      </c>
+      <c r="AF12">
+        <v>3.35</v>
+      </c>
+      <c r="AG12">
+        <v>1.9</v>
+      </c>
+      <c r="AH12">
+        <v>1.9</v>
+      </c>
+      <c r="AI12">
+        <v>1.8</v>
+      </c>
+      <c r="AJ12">
+        <v>1.95</v>
+      </c>
+      <c r="AK12">
+        <v>1.13</v>
+      </c>
+      <c r="AL12">
+        <v>1.25</v>
+      </c>
+      <c r="AM12">
+        <v>2.05</v>
+      </c>
+      <c r="AN12">
+        <v>1</v>
+      </c>
+      <c r="AO12">
+        <v>0</v>
+      </c>
+      <c r="AP12">
+        <v>0.5</v>
+      </c>
+      <c r="AQ12">
+        <v>3</v>
+      </c>
+      <c r="AR12">
+        <v>2.37</v>
+      </c>
+      <c r="AS12">
+        <v>0</v>
+      </c>
+      <c r="AT12">
+        <v>2.37</v>
+      </c>
+      <c r="AU12">
+        <v>5</v>
+      </c>
+      <c r="AV12">
+        <v>3</v>
+      </c>
+      <c r="AW12">
+        <v>4</v>
+      </c>
+      <c r="AX12">
+        <v>5</v>
+      </c>
+      <c r="AY12">
+        <v>9</v>
+      </c>
+      <c r="AZ12">
+        <v>8</v>
+      </c>
+      <c r="BA12">
+        <v>6</v>
+      </c>
+      <c r="BB12">
+        <v>5</v>
+      </c>
+      <c r="BC12">
+        <v>11</v>
+      </c>
+      <c r="BD12">
+        <v>1.51</v>
+      </c>
+      <c r="BE12">
+        <v>8.5</v>
+      </c>
+      <c r="BF12">
+        <v>3.07</v>
+      </c>
+      <c r="BG12">
+        <v>1.22</v>
+      </c>
+      <c r="BH12">
+        <v>3.8</v>
+      </c>
+      <c r="BI12">
+        <v>1.42</v>
+      </c>
+      <c r="BJ12">
+        <v>2.6</v>
+      </c>
+      <c r="BK12">
+        <v>1.74</v>
+      </c>
+      <c r="BL12">
+        <v>1.97</v>
+      </c>
+      <c r="BM12">
+        <v>2.23</v>
+      </c>
+      <c r="BN12">
+        <v>1.58</v>
+      </c>
+      <c r="BO12">
+        <v>3</v>
+      </c>
+      <c r="BP12">
+        <v>1.34</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="103">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -295,6 +295,9 @@
     <t>['36', '40', '66', '81']</t>
   </si>
   <si>
+    <t>['43', '47']</t>
+  </si>
+  <si>
     <t>['4']</t>
   </si>
   <si>
@@ -317,6 +320,9 @@
   </si>
   <si>
     <t>['60', '68', '73', '78', '85', '90+4']</t>
+  </si>
+  <si>
+    <t>['45+1', '90+2']</t>
   </si>
 </sst>
 </file>
@@ -678,7 +684,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP12"/>
+  <dimension ref="A1:BP13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -937,7 +943,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q2">
         <v>3.9</v>
@@ -1349,7 +1355,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q4">
         <v>2.36</v>
@@ -1555,7 +1561,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q5">
         <v>2.25</v>
@@ -1633,7 +1639,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ5">
         <v>0</v>
@@ -1761,7 +1767,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q6">
         <v>2.9</v>
@@ -1967,7 +1973,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Q7">
         <v>3.92</v>
@@ -2379,7 +2385,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q9">
         <v>2.25</v>
@@ -2472,22 +2478,22 @@
         <v>2.37</v>
       </c>
       <c r="AU9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX9">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AY9">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AZ9">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="BA9">
         <v>1</v>
@@ -2585,7 +2591,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -2791,7 +2797,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q11">
         <v>2.25</v>
@@ -2997,7 +3003,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q12">
         <v>2.38</v>
@@ -3154,6 +3160,212 @@
       </c>
       <c r="BP12">
         <v>1.34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:68">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>7325342</v>
+      </c>
+      <c r="C13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="2">
+        <v>45395.45833333334</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13" t="s">
+        <v>73</v>
+      </c>
+      <c r="H13" t="s">
+        <v>75</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>2</v>
+      </c>
+      <c r="M13">
+        <v>2</v>
+      </c>
+      <c r="N13">
+        <v>4</v>
+      </c>
+      <c r="O13" t="s">
+        <v>93</v>
+      </c>
+      <c r="P13" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q13">
+        <v>4.9</v>
+      </c>
+      <c r="R13">
+        <v>2.22</v>
+      </c>
+      <c r="S13">
+        <v>2.28</v>
+      </c>
+      <c r="T13">
+        <v>1.37</v>
+      </c>
+      <c r="U13">
+        <v>2.95</v>
+      </c>
+      <c r="V13">
+        <v>2.71</v>
+      </c>
+      <c r="W13">
+        <v>1.43</v>
+      </c>
+      <c r="X13">
+        <v>6.75</v>
+      </c>
+      <c r="Y13">
+        <v>1.09</v>
+      </c>
+      <c r="Z13">
+        <v>4.2</v>
+      </c>
+      <c r="AA13">
+        <v>3.55</v>
+      </c>
+      <c r="AB13">
+        <v>1.88</v>
+      </c>
+      <c r="AC13">
+        <v>1.01</v>
+      </c>
+      <c r="AD13">
+        <v>9.6</v>
+      </c>
+      <c r="AE13">
+        <v>1.25</v>
+      </c>
+      <c r="AF13">
+        <v>3.42</v>
+      </c>
+      <c r="AG13">
+        <v>2.12</v>
+      </c>
+      <c r="AH13">
+        <v>1.79</v>
+      </c>
+      <c r="AI13">
+        <v>1.8</v>
+      </c>
+      <c r="AJ13">
+        <v>1.95</v>
+      </c>
+      <c r="AK13">
+        <v>2.08</v>
+      </c>
+      <c r="AL13">
+        <v>1.27</v>
+      </c>
+      <c r="AM13">
+        <v>1.2</v>
+      </c>
+      <c r="AN13">
+        <v>3</v>
+      </c>
+      <c r="AO13">
+        <v>0</v>
+      </c>
+      <c r="AP13">
+        <v>2</v>
+      </c>
+      <c r="AQ13">
+        <v>1</v>
+      </c>
+      <c r="AR13">
+        <v>1.18</v>
+      </c>
+      <c r="AS13">
+        <v>0</v>
+      </c>
+      <c r="AT13">
+        <v>1.18</v>
+      </c>
+      <c r="AU13">
+        <v>5</v>
+      </c>
+      <c r="AV13">
+        <v>6</v>
+      </c>
+      <c r="AW13">
+        <v>3</v>
+      </c>
+      <c r="AX13">
+        <v>11</v>
+      </c>
+      <c r="AY13">
+        <v>8</v>
+      </c>
+      <c r="AZ13">
+        <v>17</v>
+      </c>
+      <c r="BA13">
+        <v>2</v>
+      </c>
+      <c r="BB13">
+        <v>7</v>
+      </c>
+      <c r="BC13">
+        <v>9</v>
+      </c>
+      <c r="BD13">
+        <v>3.29</v>
+      </c>
+      <c r="BE13">
+        <v>8.5</v>
+      </c>
+      <c r="BF13">
+        <v>1.45</v>
+      </c>
+      <c r="BG13">
+        <v>1.29</v>
+      </c>
+      <c r="BH13">
+        <v>3.25</v>
+      </c>
+      <c r="BI13">
+        <v>1.53</v>
+      </c>
+      <c r="BJ13">
+        <v>2.34</v>
+      </c>
+      <c r="BK13">
+        <v>1.98</v>
+      </c>
+      <c r="BL13">
+        <v>1.82</v>
+      </c>
+      <c r="BM13">
+        <v>2.16</v>
+      </c>
+      <c r="BN13">
+        <v>1.66</v>
+      </c>
+      <c r="BO13">
+        <v>3.5</v>
+      </c>
+      <c r="BP13">
+        <v>1.26</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="106">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -298,6 +298,12 @@
     <t>['43', '47']</t>
   </si>
   <si>
+    <t>['34']</t>
+  </si>
+  <si>
+    <t>['40']</t>
+  </si>
+  <si>
     <t>['4']</t>
   </si>
   <si>
@@ -323,6 +329,9 @@
   </si>
   <si>
     <t>['45+1', '90+2']</t>
+  </si>
+  <si>
+    <t>['79']</t>
   </si>
 </sst>
 </file>
@@ -684,7 +693,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP13"/>
+  <dimension ref="A1:BP15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -943,7 +952,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q2">
         <v>3.9</v>
@@ -1355,7 +1364,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Q4">
         <v>2.36</v>
@@ -1561,7 +1570,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Q5">
         <v>2.25</v>
@@ -1767,7 +1776,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Q6">
         <v>2.9</v>
@@ -1973,7 +1982,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="Q7">
         <v>3.92</v>
@@ -2385,7 +2394,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="Q9">
         <v>2.25</v>
@@ -2591,7 +2600,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -2797,7 +2806,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="Q11">
         <v>2.25</v>
@@ -3003,7 +3012,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q12">
         <v>2.38</v>
@@ -3209,7 +3218,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q13">
         <v>4.9</v>
@@ -3366,6 +3375,418 @@
       </c>
       <c r="BP13">
         <v>1.26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:68">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>7325343</v>
+      </c>
+      <c r="C14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="2">
+        <v>45401.5</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="G14" t="s">
+        <v>72</v>
+      </c>
+      <c r="H14" t="s">
+        <v>71</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14" t="s">
+        <v>94</v>
+      </c>
+      <c r="P14" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q14">
+        <v>3</v>
+      </c>
+      <c r="R14">
+        <v>2.17</v>
+      </c>
+      <c r="S14">
+        <v>3.35</v>
+      </c>
+      <c r="T14">
+        <v>1.37</v>
+      </c>
+      <c r="U14">
+        <v>2.95</v>
+      </c>
+      <c r="V14">
+        <v>2.71</v>
+      </c>
+      <c r="W14">
+        <v>1.43</v>
+      </c>
+      <c r="X14">
+        <v>6.75</v>
+      </c>
+      <c r="Y14">
+        <v>1.09</v>
+      </c>
+      <c r="Z14">
+        <v>2.37</v>
+      </c>
+      <c r="AA14">
+        <v>3.25</v>
+      </c>
+      <c r="AB14">
+        <v>2.6</v>
+      </c>
+      <c r="AC14">
+        <v>1.01</v>
+      </c>
+      <c r="AD14">
+        <v>9.6</v>
+      </c>
+      <c r="AE14">
+        <v>1.25</v>
+      </c>
+      <c r="AF14">
+        <v>3.42</v>
+      </c>
+      <c r="AG14">
+        <v>1.83</v>
+      </c>
+      <c r="AH14">
+        <v>1.91</v>
+      </c>
+      <c r="AI14">
+        <v>1.68</v>
+      </c>
+      <c r="AJ14">
+        <v>2.11</v>
+      </c>
+      <c r="AK14">
+        <v>1.45</v>
+      </c>
+      <c r="AL14">
+        <v>1.31</v>
+      </c>
+      <c r="AM14">
+        <v>1.55</v>
+      </c>
+      <c r="AN14">
+        <v>3</v>
+      </c>
+      <c r="AO14">
+        <v>0</v>
+      </c>
+      <c r="AP14">
+        <v>3</v>
+      </c>
+      <c r="AQ14">
+        <v>0</v>
+      </c>
+      <c r="AR14">
+        <v>1.95</v>
+      </c>
+      <c r="AS14">
+        <v>0</v>
+      </c>
+      <c r="AT14">
+        <v>1.95</v>
+      </c>
+      <c r="AU14">
+        <v>5</v>
+      </c>
+      <c r="AV14">
+        <v>7</v>
+      </c>
+      <c r="AW14">
+        <v>8</v>
+      </c>
+      <c r="AX14">
+        <v>10</v>
+      </c>
+      <c r="AY14">
+        <v>13</v>
+      </c>
+      <c r="AZ14">
+        <v>17</v>
+      </c>
+      <c r="BA14">
+        <v>4</v>
+      </c>
+      <c r="BB14">
+        <v>8</v>
+      </c>
+      <c r="BC14">
+        <v>12</v>
+      </c>
+      <c r="BD14">
+        <v>1.91</v>
+      </c>
+      <c r="BE14">
+        <v>8</v>
+      </c>
+      <c r="BF14">
+        <v>2.1</v>
+      </c>
+      <c r="BG14">
+        <v>1.27</v>
+      </c>
+      <c r="BH14">
+        <v>3.55</v>
+      </c>
+      <c r="BI14">
+        <v>1.5</v>
+      </c>
+      <c r="BJ14">
+        <v>2.48</v>
+      </c>
+      <c r="BK14">
+        <v>1.85</v>
+      </c>
+      <c r="BL14">
+        <v>1.95</v>
+      </c>
+      <c r="BM14">
+        <v>2.45</v>
+      </c>
+      <c r="BN14">
+        <v>1.5</v>
+      </c>
+      <c r="BO14">
+        <v>3.4</v>
+      </c>
+      <c r="BP14">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:68">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>7325458</v>
+      </c>
+      <c r="C15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="2">
+        <v>45401.5</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H15" t="s">
+        <v>75</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>2</v>
+      </c>
+      <c r="O15" t="s">
+        <v>95</v>
+      </c>
+      <c r="P15" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q15">
+        <v>3.36</v>
+      </c>
+      <c r="R15">
+        <v>2.35</v>
+      </c>
+      <c r="S15">
+        <v>3.12</v>
+      </c>
+      <c r="T15">
+        <v>1.35</v>
+      </c>
+      <c r="U15">
+        <v>3.33</v>
+      </c>
+      <c r="V15">
+        <v>2.69</v>
+      </c>
+      <c r="W15">
+        <v>1.49</v>
+      </c>
+      <c r="X15">
+        <v>5.75</v>
+      </c>
+      <c r="Y15">
+        <v>1.1</v>
+      </c>
+      <c r="Z15">
+        <v>2.6</v>
+      </c>
+      <c r="AA15">
+        <v>3.4</v>
+      </c>
+      <c r="AB15">
+        <v>2.38</v>
+      </c>
+      <c r="AC15">
+        <v>1.02</v>
+      </c>
+      <c r="AD15">
+        <v>10</v>
+      </c>
+      <c r="AE15">
+        <v>1.25</v>
+      </c>
+      <c r="AF15">
+        <v>3.6</v>
+      </c>
+      <c r="AG15">
+        <v>1.73</v>
+      </c>
+      <c r="AH15">
+        <v>2</v>
+      </c>
+      <c r="AI15">
+        <v>1.62</v>
+      </c>
+      <c r="AJ15">
+        <v>2.2</v>
+      </c>
+      <c r="AK15">
+        <v>1.53</v>
+      </c>
+      <c r="AL15">
+        <v>1.3</v>
+      </c>
+      <c r="AM15">
+        <v>1.48</v>
+      </c>
+      <c r="AN15">
+        <v>1</v>
+      </c>
+      <c r="AO15">
+        <v>1</v>
+      </c>
+      <c r="AP15">
+        <v>1</v>
+      </c>
+      <c r="AQ15">
+        <v>1</v>
+      </c>
+      <c r="AR15">
+        <v>1.37</v>
+      </c>
+      <c r="AS15">
+        <v>1.93</v>
+      </c>
+      <c r="AT15">
+        <v>3.3</v>
+      </c>
+      <c r="AU15">
+        <v>4</v>
+      </c>
+      <c r="AV15">
+        <v>6</v>
+      </c>
+      <c r="AW15">
+        <v>1</v>
+      </c>
+      <c r="AX15">
+        <v>4</v>
+      </c>
+      <c r="AY15">
+        <v>5</v>
+      </c>
+      <c r="AZ15">
+        <v>10</v>
+      </c>
+      <c r="BA15">
+        <v>3</v>
+      </c>
+      <c r="BB15">
+        <v>4</v>
+      </c>
+      <c r="BC15">
+        <v>7</v>
+      </c>
+      <c r="BD15">
+        <v>2.05</v>
+      </c>
+      <c r="BE15">
+        <v>8</v>
+      </c>
+      <c r="BF15">
+        <v>2.05</v>
+      </c>
+      <c r="BG15">
+        <v>1.32</v>
+      </c>
+      <c r="BH15">
+        <v>3.2</v>
+      </c>
+      <c r="BI15">
+        <v>1.58</v>
+      </c>
+      <c r="BJ15">
+        <v>2.28</v>
+      </c>
+      <c r="BK15">
+        <v>2.02</v>
+      </c>
+      <c r="BL15">
+        <v>1.74</v>
+      </c>
+      <c r="BM15">
+        <v>2.7</v>
+      </c>
+      <c r="BN15">
+        <v>1.43</v>
+      </c>
+      <c r="BO15">
+        <v>3.8</v>
+      </c>
+      <c r="BP15">
+        <v>1.24</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="112">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -304,6 +304,15 @@
     <t>['40']</t>
   </si>
   <si>
+    <t>['11', '66']</t>
+  </si>
+  <si>
+    <t>['69']</t>
+  </si>
+  <si>
+    <t>['23', '30', '86']</t>
+  </si>
+  <si>
     <t>['4']</t>
   </si>
   <si>
@@ -332,6 +341,15 @@
   </si>
   <si>
     <t>['79']</t>
+  </si>
+  <si>
+    <t>['89']</t>
+  </si>
+  <si>
+    <t>['25']</t>
+  </si>
+  <si>
+    <t>['35', '47']</t>
   </si>
 </sst>
 </file>
@@ -693,7 +711,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP15"/>
+  <dimension ref="A1:BP18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -952,7 +970,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="Q2">
         <v>3.9</v>
@@ -1364,7 +1382,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Q4">
         <v>2.36</v>
@@ -1570,7 +1588,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="Q5">
         <v>2.25</v>
@@ -1776,7 +1794,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="Q6">
         <v>2.9</v>
@@ -1982,7 +2000,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Q7">
         <v>3.92</v>
@@ -2394,7 +2412,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="Q9">
         <v>2.25</v>
@@ -2600,7 +2618,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -2678,7 +2696,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ10">
         <v>1</v>
@@ -2806,7 +2824,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="Q11">
         <v>2.25</v>
@@ -3012,7 +3030,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="Q12">
         <v>2.38</v>
@@ -3093,7 +3111,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ12">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AR12">
         <v>2.37</v>
@@ -3218,7 +3236,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="Q13">
         <v>4.9</v>
@@ -3630,7 +3648,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="Q15">
         <v>3.36</v>
@@ -3787,6 +3805,624 @@
       </c>
       <c r="BP15">
         <v>1.24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:68">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>7325344</v>
+      </c>
+      <c r="C16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="2">
+        <v>45402.375</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="G16" t="s">
+        <v>76</v>
+      </c>
+      <c r="H16" t="s">
+        <v>73</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>2</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>3</v>
+      </c>
+      <c r="O16" t="s">
+        <v>96</v>
+      </c>
+      <c r="P16" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q16">
+        <v>1.78</v>
+      </c>
+      <c r="R16">
+        <v>2.7</v>
+      </c>
+      <c r="S16">
+        <v>8.48</v>
+      </c>
+      <c r="T16">
+        <v>1.29</v>
+      </c>
+      <c r="U16">
+        <v>3.3</v>
+      </c>
+      <c r="V16">
+        <v>2.54</v>
+      </c>
+      <c r="W16">
+        <v>1.54</v>
+      </c>
+      <c r="X16">
+        <v>5.25</v>
+      </c>
+      <c r="Y16">
+        <v>1.12</v>
+      </c>
+      <c r="Z16">
+        <v>1.31</v>
+      </c>
+      <c r="AA16">
+        <v>5.2</v>
+      </c>
+      <c r="AB16">
+        <v>8.4</v>
+      </c>
+      <c r="AC16">
+        <v>1.02</v>
+      </c>
+      <c r="AD16">
+        <v>12</v>
+      </c>
+      <c r="AE16">
+        <v>1.18</v>
+      </c>
+      <c r="AF16">
+        <v>4.33</v>
+      </c>
+      <c r="AG16">
+        <v>1.61</v>
+      </c>
+      <c r="AH16">
+        <v>2.17</v>
+      </c>
+      <c r="AI16">
+        <v>1.95</v>
+      </c>
+      <c r="AJ16">
+        <v>1.75</v>
+      </c>
+      <c r="AK16">
+        <v>1.08</v>
+      </c>
+      <c r="AL16">
+        <v>1.17</v>
+      </c>
+      <c r="AM16">
+        <v>3.2</v>
+      </c>
+      <c r="AN16">
+        <v>3</v>
+      </c>
+      <c r="AO16">
+        <v>0</v>
+      </c>
+      <c r="AP16">
+        <v>3</v>
+      </c>
+      <c r="AQ16">
+        <v>0</v>
+      </c>
+      <c r="AR16">
+        <v>2.63</v>
+      </c>
+      <c r="AS16">
+        <v>0</v>
+      </c>
+      <c r="AT16">
+        <v>2.63</v>
+      </c>
+      <c r="AU16">
+        <v>7</v>
+      </c>
+      <c r="AV16">
+        <v>4</v>
+      </c>
+      <c r="AW16">
+        <v>8</v>
+      </c>
+      <c r="AX16">
+        <v>3</v>
+      </c>
+      <c r="AY16">
+        <v>15</v>
+      </c>
+      <c r="AZ16">
+        <v>7</v>
+      </c>
+      <c r="BA16">
+        <v>9</v>
+      </c>
+      <c r="BB16">
+        <v>2</v>
+      </c>
+      <c r="BC16">
+        <v>11</v>
+      </c>
+      <c r="BD16">
+        <v>1.23</v>
+      </c>
+      <c r="BE16">
+        <v>11</v>
+      </c>
+      <c r="BF16">
+        <v>5.1</v>
+      </c>
+      <c r="BG16">
+        <v>1.25</v>
+      </c>
+      <c r="BH16">
+        <v>3.7</v>
+      </c>
+      <c r="BI16">
+        <v>1.47</v>
+      </c>
+      <c r="BJ16">
+        <v>2.55</v>
+      </c>
+      <c r="BK16">
+        <v>1.82</v>
+      </c>
+      <c r="BL16">
+        <v>1.98</v>
+      </c>
+      <c r="BM16">
+        <v>2.38</v>
+      </c>
+      <c r="BN16">
+        <v>1.54</v>
+      </c>
+      <c r="BO16">
+        <v>3.25</v>
+      </c>
+      <c r="BP16">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:68">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>7325345</v>
+      </c>
+      <c r="C17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="2">
+        <v>45402.42708333334</v>
+      </c>
+      <c r="F17">
+        <v>3</v>
+      </c>
+      <c r="G17" t="s">
+        <v>79</v>
+      </c>
+      <c r="H17" t="s">
+        <v>74</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>2</v>
+      </c>
+      <c r="O17" t="s">
+        <v>97</v>
+      </c>
+      <c r="P17" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q17">
+        <v>3.59</v>
+      </c>
+      <c r="R17">
+        <v>2.22</v>
+      </c>
+      <c r="S17">
+        <v>3.16</v>
+      </c>
+      <c r="T17">
+        <v>1.41</v>
+      </c>
+      <c r="U17">
+        <v>2.98</v>
+      </c>
+      <c r="V17">
+        <v>3.03</v>
+      </c>
+      <c r="W17">
+        <v>1.4</v>
+      </c>
+      <c r="X17">
+        <v>7</v>
+      </c>
+      <c r="Y17">
+        <v>1.07</v>
+      </c>
+      <c r="Z17">
+        <v>2.9</v>
+      </c>
+      <c r="AA17">
+        <v>3.35</v>
+      </c>
+      <c r="AB17">
+        <v>2.35</v>
+      </c>
+      <c r="AC17">
+        <v>1.03</v>
+      </c>
+      <c r="AD17">
+        <v>9</v>
+      </c>
+      <c r="AE17">
+        <v>1.3</v>
+      </c>
+      <c r="AF17">
+        <v>3.2</v>
+      </c>
+      <c r="AG17">
+        <v>1.98</v>
+      </c>
+      <c r="AH17">
+        <v>1.8</v>
+      </c>
+      <c r="AI17">
+        <v>1.75</v>
+      </c>
+      <c r="AJ17">
+        <v>1.95</v>
+      </c>
+      <c r="AK17">
+        <v>1.57</v>
+      </c>
+      <c r="AL17">
+        <v>1.33</v>
+      </c>
+      <c r="AM17">
+        <v>1.4</v>
+      </c>
+      <c r="AN17">
+        <v>0</v>
+      </c>
+      <c r="AO17">
+        <v>0</v>
+      </c>
+      <c r="AP17">
+        <v>1</v>
+      </c>
+      <c r="AQ17">
+        <v>1</v>
+      </c>
+      <c r="AR17">
+        <v>0</v>
+      </c>
+      <c r="AS17">
+        <v>0</v>
+      </c>
+      <c r="AT17">
+        <v>0</v>
+      </c>
+      <c r="AU17">
+        <v>6</v>
+      </c>
+      <c r="AV17">
+        <v>4</v>
+      </c>
+      <c r="AW17">
+        <v>14</v>
+      </c>
+      <c r="AX17">
+        <v>7</v>
+      </c>
+      <c r="AY17">
+        <v>20</v>
+      </c>
+      <c r="AZ17">
+        <v>11</v>
+      </c>
+      <c r="BA17">
+        <v>14</v>
+      </c>
+      <c r="BB17">
+        <v>2</v>
+      </c>
+      <c r="BC17">
+        <v>16</v>
+      </c>
+      <c r="BD17">
+        <v>1.83</v>
+      </c>
+      <c r="BE17">
+        <v>8.5</v>
+      </c>
+      <c r="BF17">
+        <v>2.2</v>
+      </c>
+      <c r="BG17">
+        <v>1.14</v>
+      </c>
+      <c r="BH17">
+        <v>4.65</v>
+      </c>
+      <c r="BI17">
+        <v>1.29</v>
+      </c>
+      <c r="BJ17">
+        <v>3.45</v>
+      </c>
+      <c r="BK17">
+        <v>1.5</v>
+      </c>
+      <c r="BL17">
+        <v>2.45</v>
+      </c>
+      <c r="BM17">
+        <v>1.95</v>
+      </c>
+      <c r="BN17">
+        <v>1.85</v>
+      </c>
+      <c r="BO17">
+        <v>2.43</v>
+      </c>
+      <c r="BP17">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:68">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>7325348</v>
+      </c>
+      <c r="C18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="2">
+        <v>45402.52083333334</v>
+      </c>
+      <c r="F18">
+        <v>3</v>
+      </c>
+      <c r="G18" t="s">
+        <v>77</v>
+      </c>
+      <c r="H18" t="s">
+        <v>70</v>
+      </c>
+      <c r="I18">
+        <v>2</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>3</v>
+      </c>
+      <c r="M18">
+        <v>2</v>
+      </c>
+      <c r="N18">
+        <v>5</v>
+      </c>
+      <c r="O18" t="s">
+        <v>98</v>
+      </c>
+      <c r="P18" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q18">
+        <v>2.75</v>
+      </c>
+      <c r="R18">
+        <v>2.25</v>
+      </c>
+      <c r="S18">
+        <v>3.75</v>
+      </c>
+      <c r="T18">
+        <v>1.36</v>
+      </c>
+      <c r="U18">
+        <v>3.1</v>
+      </c>
+      <c r="V18">
+        <v>2.7</v>
+      </c>
+      <c r="W18">
+        <v>1.44</v>
+      </c>
+      <c r="X18">
+        <v>6.5</v>
+      </c>
+      <c r="Y18">
+        <v>1.09</v>
+      </c>
+      <c r="Z18">
+        <v>2.05</v>
+      </c>
+      <c r="AA18">
+        <v>3.4</v>
+      </c>
+      <c r="AB18">
+        <v>3.3</v>
+      </c>
+      <c r="AC18">
+        <v>1.04</v>
+      </c>
+      <c r="AD18">
+        <v>12</v>
+      </c>
+      <c r="AE18">
+        <v>1.28</v>
+      </c>
+      <c r="AF18">
+        <v>3.75</v>
+      </c>
+      <c r="AG18">
+        <v>1.81</v>
+      </c>
+      <c r="AH18">
+        <v>2</v>
+      </c>
+      <c r="AI18">
+        <v>1.68</v>
+      </c>
+      <c r="AJ18">
+        <v>2.15</v>
+      </c>
+      <c r="AK18">
+        <v>1.35</v>
+      </c>
+      <c r="AL18">
+        <v>1.33</v>
+      </c>
+      <c r="AM18">
+        <v>1.8</v>
+      </c>
+      <c r="AN18">
+        <v>1</v>
+      </c>
+      <c r="AO18">
+        <v>3</v>
+      </c>
+      <c r="AP18">
+        <v>2</v>
+      </c>
+      <c r="AQ18">
+        <v>1.5</v>
+      </c>
+      <c r="AR18">
+        <v>1.66</v>
+      </c>
+      <c r="AS18">
+        <v>1.02</v>
+      </c>
+      <c r="AT18">
+        <v>2.68</v>
+      </c>
+      <c r="AU18">
+        <v>4</v>
+      </c>
+      <c r="AV18">
+        <v>2</v>
+      </c>
+      <c r="AW18">
+        <v>7</v>
+      </c>
+      <c r="AX18">
+        <v>4</v>
+      </c>
+      <c r="AY18">
+        <v>11</v>
+      </c>
+      <c r="AZ18">
+        <v>6</v>
+      </c>
+      <c r="BA18">
+        <v>9</v>
+      </c>
+      <c r="BB18">
+        <v>3</v>
+      </c>
+      <c r="BC18">
+        <v>12</v>
+      </c>
+      <c r="BD18">
+        <v>2</v>
+      </c>
+      <c r="BE18">
+        <v>8</v>
+      </c>
+      <c r="BF18">
+        <v>2.05</v>
+      </c>
+      <c r="BG18">
+        <v>1.18</v>
+      </c>
+      <c r="BH18">
+        <v>4.5</v>
+      </c>
+      <c r="BI18">
+        <v>1.34</v>
+      </c>
+      <c r="BJ18">
+        <v>3.1</v>
+      </c>
+      <c r="BK18">
+        <v>1.61</v>
+      </c>
+      <c r="BL18">
+        <v>2.23</v>
+      </c>
+      <c r="BM18">
+        <v>2.02</v>
+      </c>
+      <c r="BN18">
+        <v>1.74</v>
+      </c>
+      <c r="BO18">
+        <v>2.7</v>
+      </c>
+      <c r="BP18">
+        <v>1.43</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="114">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -256,12 +256,12 @@
     <t>Lahti</t>
   </si>
   <si>
+    <t>EIF</t>
+  </si>
+  <si>
     <t>Oulu</t>
   </si>
   <si>
-    <t>EIF</t>
-  </si>
-  <si>
     <t>['9', '35']</t>
   </si>
   <si>
@@ -313,6 +313,9 @@
     <t>['23', '30', '86']</t>
   </si>
   <si>
+    <t>['18']</t>
+  </si>
+  <si>
     <t>['4']</t>
   </si>
   <si>
@@ -350,6 +353,9 @@
   </si>
   <si>
     <t>['35', '47']</t>
+  </si>
+  <si>
+    <t>['75']</t>
   </si>
 </sst>
 </file>
@@ -711,7 +717,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP18"/>
+  <dimension ref="A1:BP19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -970,7 +976,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q2">
         <v>3.9</v>
@@ -1358,7 +1364,7 @@
         <v>72</v>
       </c>
       <c r="H4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -1382,7 +1388,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q4">
         <v>2.36</v>
@@ -1463,7 +1469,7 @@
         <v>3</v>
       </c>
       <c r="AQ4">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1564,7 +1570,7 @@
         <v>73</v>
       </c>
       <c r="H5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I5">
         <v>2</v>
@@ -1588,7 +1594,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q5">
         <v>2.25</v>
@@ -1794,7 +1800,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q6">
         <v>2.9</v>
@@ -2000,7 +2006,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q7">
         <v>3.92</v>
@@ -2388,7 +2394,7 @@
         <v>74</v>
       </c>
       <c r="H9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -2412,7 +2418,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q9">
         <v>2.25</v>
@@ -2618,7 +2624,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -2800,7 +2806,7 @@
         <v>78</v>
       </c>
       <c r="H11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -2824,7 +2830,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q11">
         <v>2.25</v>
@@ -2905,7 +2911,7 @@
         <v>1</v>
       </c>
       <c r="AQ11">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3030,7 +3036,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q12">
         <v>2.38</v>
@@ -3236,7 +3242,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q13">
         <v>4.9</v>
@@ -3648,7 +3654,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q15">
         <v>3.36</v>
@@ -3854,7 +3860,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q16">
         <v>1.78</v>
@@ -4060,7 +4066,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q17">
         <v>3.59</v>
@@ -4153,10 +4159,10 @@
         <v>0</v>
       </c>
       <c r="AU17">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AV17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW17">
         <v>14</v>
@@ -4165,10 +4171,10 @@
         <v>7</v>
       </c>
       <c r="AY17">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AZ17">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA17">
         <v>14</v>
@@ -4266,7 +4272,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -4359,10 +4365,10 @@
         <v>2.68</v>
       </c>
       <c r="AU18">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AV18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW18">
         <v>7</v>
@@ -4371,10 +4377,10 @@
         <v>4</v>
       </c>
       <c r="AY18">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AZ18">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA18">
         <v>9</v>
@@ -4423,6 +4429,212 @@
       </c>
       <c r="BP18">
         <v>1.43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:68">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>7325346</v>
+      </c>
+      <c r="C19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="2">
+        <v>45403.52083333334</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+      <c r="G19" t="s">
+        <v>80</v>
+      </c>
+      <c r="H19" t="s">
+        <v>81</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>2</v>
+      </c>
+      <c r="O19" t="s">
+        <v>99</v>
+      </c>
+      <c r="P19" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q19">
+        <v>4</v>
+      </c>
+      <c r="R19">
+        <v>2.3</v>
+      </c>
+      <c r="S19">
+        <v>2.55</v>
+      </c>
+      <c r="T19">
+        <v>1.3</v>
+      </c>
+      <c r="U19">
+        <v>3.4</v>
+      </c>
+      <c r="V19">
+        <v>2.5</v>
+      </c>
+      <c r="W19">
+        <v>1.5</v>
+      </c>
+      <c r="X19">
+        <v>6</v>
+      </c>
+      <c r="Y19">
+        <v>1.13</v>
+      </c>
+      <c r="Z19">
+        <v>3.65</v>
+      </c>
+      <c r="AA19">
+        <v>3.55</v>
+      </c>
+      <c r="AB19">
+        <v>1.87</v>
+      </c>
+      <c r="AC19">
+        <v>1.03</v>
+      </c>
+      <c r="AD19">
+        <v>13</v>
+      </c>
+      <c r="AE19">
+        <v>1.22</v>
+      </c>
+      <c r="AF19">
+        <v>4.33</v>
+      </c>
+      <c r="AG19">
+        <v>1.68</v>
+      </c>
+      <c r="AH19">
+        <v>2.2</v>
+      </c>
+      <c r="AI19">
+        <v>1.62</v>
+      </c>
+      <c r="AJ19">
+        <v>2.2</v>
+      </c>
+      <c r="AK19">
+        <v>1.9</v>
+      </c>
+      <c r="AL19">
+        <v>1.3</v>
+      </c>
+      <c r="AM19">
+        <v>1.3</v>
+      </c>
+      <c r="AN19">
+        <v>0</v>
+      </c>
+      <c r="AO19">
+        <v>0.5</v>
+      </c>
+      <c r="AP19">
+        <v>1</v>
+      </c>
+      <c r="AQ19">
+        <v>0.67</v>
+      </c>
+      <c r="AR19">
+        <v>0</v>
+      </c>
+      <c r="AS19">
+        <v>1.46</v>
+      </c>
+      <c r="AT19">
+        <v>1.46</v>
+      </c>
+      <c r="AU19">
+        <v>3</v>
+      </c>
+      <c r="AV19">
+        <v>12</v>
+      </c>
+      <c r="AW19">
+        <v>0</v>
+      </c>
+      <c r="AX19">
+        <v>9</v>
+      </c>
+      <c r="AY19">
+        <v>3</v>
+      </c>
+      <c r="AZ19">
+        <v>21</v>
+      </c>
+      <c r="BA19">
+        <v>2</v>
+      </c>
+      <c r="BB19">
+        <v>10</v>
+      </c>
+      <c r="BC19">
+        <v>12</v>
+      </c>
+      <c r="BD19">
+        <v>2.34</v>
+      </c>
+      <c r="BE19">
+        <v>7.5</v>
+      </c>
+      <c r="BF19">
+        <v>1.82</v>
+      </c>
+      <c r="BG19">
+        <v>1.4</v>
+      </c>
+      <c r="BH19">
+        <v>2.8</v>
+      </c>
+      <c r="BI19">
+        <v>1.74</v>
+      </c>
+      <c r="BJ19">
+        <v>2.02</v>
+      </c>
+      <c r="BK19">
+        <v>2.28</v>
+      </c>
+      <c r="BL19">
+        <v>1.58</v>
+      </c>
+      <c r="BM19">
+        <v>3.1</v>
+      </c>
+      <c r="BN19">
+        <v>1.33</v>
+      </c>
+      <c r="BO19">
+        <v>4.5</v>
+      </c>
+      <c r="BP19">
+        <v>1.19</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
@@ -4571,7 +4571,7 @@
         <v>1.46</v>
       </c>
       <c r="AU19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV19">
         <v>12</v>
@@ -4583,7 +4583,7 @@
         <v>9</v>
       </c>
       <c r="AY19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AZ19">
         <v>21</v>

--- a/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="116">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -316,6 +316,9 @@
     <t>['18']</t>
   </si>
   <si>
+    <t>['7', '53', '88']</t>
+  </si>
+  <si>
     <t>['4']</t>
   </si>
   <si>
@@ -356,6 +359,9 @@
   </si>
   <si>
     <t>['75']</t>
+  </si>
+  <si>
+    <t>['45+3', '57', '62']</t>
   </si>
 </sst>
 </file>
@@ -717,7 +723,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP19"/>
+  <dimension ref="A1:BP20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -976,7 +982,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q2">
         <v>3.9</v>
@@ -1388,7 +1394,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q4">
         <v>2.36</v>
@@ -1466,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AQ4">
         <v>0.67</v>
@@ -1594,7 +1600,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q5">
         <v>2.25</v>
@@ -1800,7 +1806,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q6">
         <v>2.9</v>
@@ -2006,7 +2012,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q7">
         <v>3.92</v>
@@ -2087,7 +2093,7 @@
         <v>3</v>
       </c>
       <c r="AQ7">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2418,7 +2424,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q9">
         <v>2.25</v>
@@ -2624,7 +2630,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -2830,7 +2836,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q11">
         <v>2.25</v>
@@ -3036,7 +3042,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q12">
         <v>2.38</v>
@@ -3242,7 +3248,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q13">
         <v>4.9</v>
@@ -3526,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AQ14">
         <v>0</v>
@@ -3654,7 +3660,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q15">
         <v>3.36</v>
@@ -3860,7 +3866,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q16">
         <v>1.78</v>
@@ -4066,7 +4072,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q17">
         <v>3.59</v>
@@ -4272,7 +4278,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -4478,7 +4484,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -4635,6 +4641,212 @@
       </c>
       <c r="BP19">
         <v>1.19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:68">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>7325349</v>
+      </c>
+      <c r="C20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="2">
+        <v>45406.54166666666</v>
+      </c>
+      <c r="F20">
+        <v>15</v>
+      </c>
+      <c r="G20" t="s">
+        <v>72</v>
+      </c>
+      <c r="H20" t="s">
+        <v>76</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>3</v>
+      </c>
+      <c r="M20">
+        <v>3</v>
+      </c>
+      <c r="N20">
+        <v>6</v>
+      </c>
+      <c r="O20" t="s">
+        <v>100</v>
+      </c>
+      <c r="P20" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q20">
+        <v>3.6</v>
+      </c>
+      <c r="R20">
+        <v>2.15</v>
+      </c>
+      <c r="S20">
+        <v>2.7</v>
+      </c>
+      <c r="T20">
+        <v>1.36</v>
+      </c>
+      <c r="U20">
+        <v>3</v>
+      </c>
+      <c r="V20">
+        <v>2.67</v>
+      </c>
+      <c r="W20">
+        <v>1.44</v>
+      </c>
+      <c r="X20">
+        <v>6.6</v>
+      </c>
+      <c r="Y20">
+        <v>1.09</v>
+      </c>
+      <c r="Z20">
+        <v>2.75</v>
+      </c>
+      <c r="AA20">
+        <v>3.2</v>
+      </c>
+      <c r="AB20">
+        <v>2.25</v>
+      </c>
+      <c r="AC20">
+        <v>1.01</v>
+      </c>
+      <c r="AD20">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AE20">
+        <v>1.24</v>
+      </c>
+      <c r="AF20">
+        <v>3.5</v>
+      </c>
+      <c r="AG20">
+        <v>1.75</v>
+      </c>
+      <c r="AH20">
+        <v>1.85</v>
+      </c>
+      <c r="AI20">
+        <v>1.68</v>
+      </c>
+      <c r="AJ20">
+        <v>2.11</v>
+      </c>
+      <c r="AK20">
+        <v>1.65</v>
+      </c>
+      <c r="AL20">
+        <v>1.27</v>
+      </c>
+      <c r="AM20">
+        <v>1.32</v>
+      </c>
+      <c r="AN20">
+        <v>3</v>
+      </c>
+      <c r="AO20">
+        <v>0</v>
+      </c>
+      <c r="AP20">
+        <v>2.33</v>
+      </c>
+      <c r="AQ20">
+        <v>0.5</v>
+      </c>
+      <c r="AR20">
+        <v>1.71</v>
+      </c>
+      <c r="AS20">
+        <v>1.4</v>
+      </c>
+      <c r="AT20">
+        <v>3.11</v>
+      </c>
+      <c r="AU20">
+        <v>3</v>
+      </c>
+      <c r="AV20">
+        <v>2</v>
+      </c>
+      <c r="AW20">
+        <v>5</v>
+      </c>
+      <c r="AX20">
+        <v>4</v>
+      </c>
+      <c r="AY20">
+        <v>8</v>
+      </c>
+      <c r="AZ20">
+        <v>6</v>
+      </c>
+      <c r="BA20">
+        <v>10</v>
+      </c>
+      <c r="BB20">
+        <v>5</v>
+      </c>
+      <c r="BC20">
+        <v>15</v>
+      </c>
+      <c r="BD20">
+        <v>2.33</v>
+      </c>
+      <c r="BE20">
+        <v>8</v>
+      </c>
+      <c r="BF20">
+        <v>1.82</v>
+      </c>
+      <c r="BG20">
+        <v>1.26</v>
+      </c>
+      <c r="BH20">
+        <v>3.6</v>
+      </c>
+      <c r="BI20">
+        <v>1.48</v>
+      </c>
+      <c r="BJ20">
+        <v>2.57</v>
+      </c>
+      <c r="BK20">
+        <v>1.8</v>
+      </c>
+      <c r="BL20">
+        <v>1.99</v>
+      </c>
+      <c r="BM20">
+        <v>2.25</v>
+      </c>
+      <c r="BN20">
+        <v>1.62</v>
+      </c>
+      <c r="BO20">
+        <v>3</v>
+      </c>
+      <c r="BP20">
+        <v>1.34</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="123">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -319,6 +319,15 @@
     <t>['7', '53', '88']</t>
   </si>
   <si>
+    <t>['34', '62']</t>
+  </si>
+  <si>
+    <t>['13']</t>
+  </si>
+  <si>
+    <t>['71']</t>
+  </si>
+  <si>
     <t>['4']</t>
   </si>
   <si>
@@ -362,6 +371,18 @@
   </si>
   <si>
     <t>['45+3', '57', '62']</t>
+  </si>
+  <si>
+    <t>['54']</t>
+  </si>
+  <si>
+    <t>['19']</t>
+  </si>
+  <si>
+    <t>['59', '82']</t>
+  </si>
+  <si>
+    <t>['90']</t>
   </si>
 </sst>
 </file>
@@ -723,7 +744,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP20"/>
+  <dimension ref="A1:BP25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -982,7 +1003,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="Q2">
         <v>3.9</v>
@@ -1060,7 +1081,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AQ2">
         <v>0</v>
@@ -1394,7 +1415,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="Q4">
         <v>2.36</v>
@@ -1600,7 +1621,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="Q5">
         <v>2.25</v>
@@ -1806,7 +1827,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="Q6">
         <v>2.9</v>
@@ -1884,7 +1905,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ6">
         <v>3</v>
@@ -2012,7 +2033,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="Q7">
         <v>3.92</v>
@@ -2093,7 +2114,7 @@
         <v>3</v>
       </c>
       <c r="AQ7">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2424,7 +2445,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="Q9">
         <v>2.25</v>
@@ -2502,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ9">
         <v>0</v>
@@ -2630,7 +2651,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -2711,7 +2732,7 @@
         <v>2</v>
       </c>
       <c r="AQ10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -2836,7 +2857,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="Q11">
         <v>2.25</v>
@@ -2914,7 +2935,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AQ11">
         <v>0.67</v>
@@ -3042,7 +3063,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="Q12">
         <v>2.38</v>
@@ -3248,7 +3269,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="Q13">
         <v>4.9</v>
@@ -3329,7 +3350,7 @@
         <v>2</v>
       </c>
       <c r="AQ13">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AR13">
         <v>1.18</v>
@@ -3660,7 +3681,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="Q15">
         <v>3.36</v>
@@ -3738,10 +3759,10 @@
         <v>1</v>
       </c>
       <c r="AP15">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AQ15">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AR15">
         <v>1.37</v>
@@ -3866,7 +3887,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="Q16">
         <v>1.78</v>
@@ -4072,7 +4093,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="Q17">
         <v>3.59</v>
@@ -4150,7 +4171,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AQ17">
         <v>1</v>
@@ -4278,7 +4299,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -4484,7 +4505,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -4690,7 +4711,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="Q20">
         <v>3.6</v>
@@ -4771,7 +4792,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ20">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR20">
         <v>1.71</v>
@@ -4783,31 +4804,31 @@
         <v>3.11</v>
       </c>
       <c r="AU20">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AV20">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AW20">
+        <v>6</v>
+      </c>
+      <c r="AX20">
         <v>5</v>
       </c>
-      <c r="AX20">
-        <v>4</v>
-      </c>
       <c r="AY20">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AZ20">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BA20">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BB20">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BC20">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="BD20">
         <v>2.33</v>
@@ -4847,6 +4868,1036 @@
       </c>
       <c r="BP20">
         <v>1.34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:68">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>7325350</v>
+      </c>
+      <c r="C21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="2">
+        <v>45408.5</v>
+      </c>
+      <c r="F21">
+        <v>4</v>
+      </c>
+      <c r="G21" t="s">
+        <v>78</v>
+      </c>
+      <c r="H21" t="s">
+        <v>80</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>2</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <v>3</v>
+      </c>
+      <c r="O21" t="s">
+        <v>101</v>
+      </c>
+      <c r="P21" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q21">
+        <v>2.1</v>
+      </c>
+      <c r="R21">
+        <v>2.38</v>
+      </c>
+      <c r="S21">
+        <v>5.5</v>
+      </c>
+      <c r="T21">
+        <v>1.33</v>
+      </c>
+      <c r="U21">
+        <v>3.25</v>
+      </c>
+      <c r="V21">
+        <v>2.5</v>
+      </c>
+      <c r="W21">
+        <v>1.5</v>
+      </c>
+      <c r="X21">
+        <v>6.5</v>
+      </c>
+      <c r="Y21">
+        <v>1.11</v>
+      </c>
+      <c r="Z21">
+        <v>1.4</v>
+      </c>
+      <c r="AA21">
+        <v>4.5</v>
+      </c>
+      <c r="AB21">
+        <v>6.5</v>
+      </c>
+      <c r="AC21">
+        <v>1.03</v>
+      </c>
+      <c r="AD21">
+        <v>13</v>
+      </c>
+      <c r="AE21">
+        <v>1.22</v>
+      </c>
+      <c r="AF21">
+        <v>4.33</v>
+      </c>
+      <c r="AG21">
+        <v>1.6</v>
+      </c>
+      <c r="AH21">
+        <v>2.2</v>
+      </c>
+      <c r="AI21">
+        <v>1.8</v>
+      </c>
+      <c r="AJ21">
+        <v>1.95</v>
+      </c>
+      <c r="AK21">
+        <v>1.17</v>
+      </c>
+      <c r="AL21">
+        <v>1.25</v>
+      </c>
+      <c r="AM21">
+        <v>2.5</v>
+      </c>
+      <c r="AN21">
+        <v>1</v>
+      </c>
+      <c r="AO21">
+        <v>0</v>
+      </c>
+      <c r="AP21">
+        <v>1.67</v>
+      </c>
+      <c r="AQ21">
+        <v>0</v>
+      </c>
+      <c r="AR21">
+        <v>1.15</v>
+      </c>
+      <c r="AS21">
+        <v>1.44</v>
+      </c>
+      <c r="AT21">
+        <v>2.59</v>
+      </c>
+      <c r="AU21">
+        <v>6</v>
+      </c>
+      <c r="AV21">
+        <v>2</v>
+      </c>
+      <c r="AW21">
+        <v>7</v>
+      </c>
+      <c r="AX21">
+        <v>6</v>
+      </c>
+      <c r="AY21">
+        <v>13</v>
+      </c>
+      <c r="AZ21">
+        <v>8</v>
+      </c>
+      <c r="BA21">
+        <v>3</v>
+      </c>
+      <c r="BB21">
+        <v>4</v>
+      </c>
+      <c r="BC21">
+        <v>7</v>
+      </c>
+      <c r="BD21">
+        <v>1.51</v>
+      </c>
+      <c r="BE21">
+        <v>8.5</v>
+      </c>
+      <c r="BF21">
+        <v>3.16</v>
+      </c>
+      <c r="BG21">
+        <v>1.26</v>
+      </c>
+      <c r="BH21">
+        <v>3.65</v>
+      </c>
+      <c r="BI21">
+        <v>1.48</v>
+      </c>
+      <c r="BJ21">
+        <v>2.55</v>
+      </c>
+      <c r="BK21">
+        <v>1.85</v>
+      </c>
+      <c r="BL21">
+        <v>1.95</v>
+      </c>
+      <c r="BM21">
+        <v>2.43</v>
+      </c>
+      <c r="BN21">
+        <v>1.52</v>
+      </c>
+      <c r="BO21">
+        <v>3.3</v>
+      </c>
+      <c r="BP21">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:68">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>7325351</v>
+      </c>
+      <c r="C22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="2">
+        <v>45409.375</v>
+      </c>
+      <c r="F22">
+        <v>4</v>
+      </c>
+      <c r="G22" t="s">
+        <v>74</v>
+      </c>
+      <c r="H22" t="s">
+        <v>76</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>2</v>
+      </c>
+      <c r="O22" t="s">
+        <v>102</v>
+      </c>
+      <c r="P22" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q22">
+        <v>4.33</v>
+      </c>
+      <c r="R22">
+        <v>2.25</v>
+      </c>
+      <c r="S22">
+        <v>2.5</v>
+      </c>
+      <c r="T22">
+        <v>1.33</v>
+      </c>
+      <c r="U22">
+        <v>3.25</v>
+      </c>
+      <c r="V22">
+        <v>2.63</v>
+      </c>
+      <c r="W22">
+        <v>1.44</v>
+      </c>
+      <c r="X22">
+        <v>7</v>
+      </c>
+      <c r="Y22">
+        <v>1.1</v>
+      </c>
+      <c r="Z22">
+        <v>3.75</v>
+      </c>
+      <c r="AA22">
+        <v>3.5</v>
+      </c>
+      <c r="AB22">
+        <v>1.83</v>
+      </c>
+      <c r="AC22">
+        <v>1.03</v>
+      </c>
+      <c r="AD22">
+        <v>13</v>
+      </c>
+      <c r="AE22">
+        <v>1.22</v>
+      </c>
+      <c r="AF22">
+        <v>4.33</v>
+      </c>
+      <c r="AG22">
+        <v>1.83</v>
+      </c>
+      <c r="AH22">
+        <v>2.03</v>
+      </c>
+      <c r="AI22">
+        <v>1.7</v>
+      </c>
+      <c r="AJ22">
+        <v>2.05</v>
+      </c>
+      <c r="AK22">
+        <v>1.9</v>
+      </c>
+      <c r="AL22">
+        <v>1.3</v>
+      </c>
+      <c r="AM22">
+        <v>1.3</v>
+      </c>
+      <c r="AN22">
+        <v>1.5</v>
+      </c>
+      <c r="AO22">
+        <v>0.5</v>
+      </c>
+      <c r="AP22">
+        <v>1.33</v>
+      </c>
+      <c r="AQ22">
+        <v>0.67</v>
+      </c>
+      <c r="AR22">
+        <v>1.26</v>
+      </c>
+      <c r="AS22">
+        <v>1.41</v>
+      </c>
+      <c r="AT22">
+        <v>2.67</v>
+      </c>
+      <c r="AU22">
+        <v>5</v>
+      </c>
+      <c r="AV22">
+        <v>5</v>
+      </c>
+      <c r="AW22">
+        <v>4</v>
+      </c>
+      <c r="AX22">
+        <v>6</v>
+      </c>
+      <c r="AY22">
+        <v>9</v>
+      </c>
+      <c r="AZ22">
+        <v>11</v>
+      </c>
+      <c r="BA22">
+        <v>7</v>
+      </c>
+      <c r="BB22">
+        <v>4</v>
+      </c>
+      <c r="BC22">
+        <v>11</v>
+      </c>
+      <c r="BD22">
+        <v>2.78</v>
+      </c>
+      <c r="BE22">
+        <v>8.5</v>
+      </c>
+      <c r="BF22">
+        <v>1.59</v>
+      </c>
+      <c r="BG22">
+        <v>1.21</v>
+      </c>
+      <c r="BH22">
+        <v>4.2</v>
+      </c>
+      <c r="BI22">
+        <v>1.38</v>
+      </c>
+      <c r="BJ22">
+        <v>2.88</v>
+      </c>
+      <c r="BK22">
+        <v>1.73</v>
+      </c>
+      <c r="BL22">
+        <v>2</v>
+      </c>
+      <c r="BM22">
+        <v>2.14</v>
+      </c>
+      <c r="BN22">
+        <v>1.66</v>
+      </c>
+      <c r="BO22">
+        <v>2.88</v>
+      </c>
+      <c r="BP22">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:68">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>7325353</v>
+      </c>
+      <c r="C23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="2">
+        <v>45409.45833333334</v>
+      </c>
+      <c r="F23">
+        <v>4</v>
+      </c>
+      <c r="G23" t="s">
+        <v>79</v>
+      </c>
+      <c r="H23" t="s">
+        <v>75</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23" t="s">
+        <v>83</v>
+      </c>
+      <c r="P23" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q23">
+        <v>5.07</v>
+      </c>
+      <c r="R23">
+        <v>2.28</v>
+      </c>
+      <c r="S23">
+        <v>2.44</v>
+      </c>
+      <c r="T23">
+        <v>1.41</v>
+      </c>
+      <c r="U23">
+        <v>3</v>
+      </c>
+      <c r="V23">
+        <v>3</v>
+      </c>
+      <c r="W23">
+        <v>1.41</v>
+      </c>
+      <c r="X23">
+        <v>7</v>
+      </c>
+      <c r="Y23">
+        <v>1.08</v>
+      </c>
+      <c r="Z23">
+        <v>4</v>
+      </c>
+      <c r="AA23">
+        <v>3.5</v>
+      </c>
+      <c r="AB23">
+        <v>1.7</v>
+      </c>
+      <c r="AC23">
+        <v>1.05</v>
+      </c>
+      <c r="AD23">
+        <v>11</v>
+      </c>
+      <c r="AE23">
+        <v>1.3</v>
+      </c>
+      <c r="AF23">
+        <v>3.5</v>
+      </c>
+      <c r="AG23">
+        <v>1.85</v>
+      </c>
+      <c r="AH23">
+        <v>1.85</v>
+      </c>
+      <c r="AI23">
+        <v>1.85</v>
+      </c>
+      <c r="AJ23">
+        <v>1.9</v>
+      </c>
+      <c r="AK23">
+        <v>2.1</v>
+      </c>
+      <c r="AL23">
+        <v>1.3</v>
+      </c>
+      <c r="AM23">
+        <v>1.25</v>
+      </c>
+      <c r="AN23">
+        <v>1</v>
+      </c>
+      <c r="AO23">
+        <v>1</v>
+      </c>
+      <c r="AP23">
+        <v>0.5</v>
+      </c>
+      <c r="AQ23">
+        <v>1.67</v>
+      </c>
+      <c r="AR23">
+        <v>2.91</v>
+      </c>
+      <c r="AS23">
+        <v>1.8</v>
+      </c>
+      <c r="AT23">
+        <v>4.71</v>
+      </c>
+      <c r="AU23">
+        <v>0</v>
+      </c>
+      <c r="AV23">
+        <v>3</v>
+      </c>
+      <c r="AW23">
+        <v>3</v>
+      </c>
+      <c r="AX23">
+        <v>4</v>
+      </c>
+      <c r="AY23">
+        <v>3</v>
+      </c>
+      <c r="AZ23">
+        <v>7</v>
+      </c>
+      <c r="BA23">
+        <v>7</v>
+      </c>
+      <c r="BB23">
+        <v>2</v>
+      </c>
+      <c r="BC23">
+        <v>9</v>
+      </c>
+      <c r="BD23">
+        <v>2.54</v>
+      </c>
+      <c r="BE23">
+        <v>8</v>
+      </c>
+      <c r="BF23">
+        <v>1.69</v>
+      </c>
+      <c r="BG23">
+        <v>1.24</v>
+      </c>
+      <c r="BH23">
+        <v>3.75</v>
+      </c>
+      <c r="BI23">
+        <v>1.45</v>
+      </c>
+      <c r="BJ23">
+        <v>2.63</v>
+      </c>
+      <c r="BK23">
+        <v>1.8</v>
+      </c>
+      <c r="BL23">
+        <v>2</v>
+      </c>
+      <c r="BM23">
+        <v>2.33</v>
+      </c>
+      <c r="BN23">
+        <v>1.56</v>
+      </c>
+      <c r="BO23">
+        <v>3.2</v>
+      </c>
+      <c r="BP23">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:68">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>7325352</v>
+      </c>
+      <c r="C24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" s="2">
+        <v>45409.52083333334</v>
+      </c>
+      <c r="F24">
+        <v>4</v>
+      </c>
+      <c r="G24" t="s">
+        <v>81</v>
+      </c>
+      <c r="H24" t="s">
+        <v>77</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>2</v>
+      </c>
+      <c r="N24">
+        <v>3</v>
+      </c>
+      <c r="O24" t="s">
+        <v>103</v>
+      </c>
+      <c r="P24" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q24">
+        <v>3.6</v>
+      </c>
+      <c r="R24">
+        <v>2.2</v>
+      </c>
+      <c r="S24">
+        <v>2.7</v>
+      </c>
+      <c r="T24">
+        <v>1.35</v>
+      </c>
+      <c r="U24">
+        <v>2.95</v>
+      </c>
+      <c r="V24">
+        <v>2.6</v>
+      </c>
+      <c r="W24">
+        <v>1.45</v>
+      </c>
+      <c r="X24">
+        <v>6.5</v>
+      </c>
+      <c r="Y24">
+        <v>1.1</v>
+      </c>
+      <c r="Z24">
+        <v>3</v>
+      </c>
+      <c r="AA24">
+        <v>3.3</v>
+      </c>
+      <c r="AB24">
+        <v>2.05</v>
+      </c>
+      <c r="AC24">
+        <v>1.04</v>
+      </c>
+      <c r="AD24">
+        <v>13</v>
+      </c>
+      <c r="AE24">
+        <v>1.23</v>
+      </c>
+      <c r="AF24">
+        <v>3.75</v>
+      </c>
+      <c r="AG24">
+        <v>1.73</v>
+      </c>
+      <c r="AH24">
+        <v>2</v>
+      </c>
+      <c r="AI24">
+        <v>1.62</v>
+      </c>
+      <c r="AJ24">
+        <v>2.15</v>
+      </c>
+      <c r="AK24">
+        <v>1.65</v>
+      </c>
+      <c r="AL24">
+        <v>1.27</v>
+      </c>
+      <c r="AM24">
+        <v>1.32</v>
+      </c>
+      <c r="AN24">
+        <v>0</v>
+      </c>
+      <c r="AO24">
+        <v>3</v>
+      </c>
+      <c r="AP24">
+        <v>0</v>
+      </c>
+      <c r="AQ24">
+        <v>3</v>
+      </c>
+      <c r="AR24">
+        <v>0</v>
+      </c>
+      <c r="AS24">
+        <v>0.62</v>
+      </c>
+      <c r="AT24">
+        <v>0.62</v>
+      </c>
+      <c r="AU24">
+        <v>5</v>
+      </c>
+      <c r="AV24">
+        <v>8</v>
+      </c>
+      <c r="AW24">
+        <v>3</v>
+      </c>
+      <c r="AX24">
+        <v>9</v>
+      </c>
+      <c r="AY24">
+        <v>8</v>
+      </c>
+      <c r="AZ24">
+        <v>17</v>
+      </c>
+      <c r="BA24">
+        <v>4</v>
+      </c>
+      <c r="BB24">
+        <v>10</v>
+      </c>
+      <c r="BC24">
+        <v>14</v>
+      </c>
+      <c r="BD24">
+        <v>2</v>
+      </c>
+      <c r="BE24">
+        <v>8</v>
+      </c>
+      <c r="BF24">
+        <v>2</v>
+      </c>
+      <c r="BG24">
+        <v>1.21</v>
+      </c>
+      <c r="BH24">
+        <v>3.74</v>
+      </c>
+      <c r="BI24">
+        <v>1.42</v>
+      </c>
+      <c r="BJ24">
+        <v>2.65</v>
+      </c>
+      <c r="BK24">
+        <v>1.73</v>
+      </c>
+      <c r="BL24">
+        <v>2</v>
+      </c>
+      <c r="BM24">
+        <v>2.19</v>
+      </c>
+      <c r="BN24">
+        <v>1.6</v>
+      </c>
+      <c r="BO24">
+        <v>2.91</v>
+      </c>
+      <c r="BP24">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:68">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>7325354</v>
+      </c>
+      <c r="C25" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" s="2">
+        <v>45410.41666666666</v>
+      </c>
+      <c r="F25">
+        <v>4</v>
+      </c>
+      <c r="G25" t="s">
+        <v>70</v>
+      </c>
+      <c r="H25" t="s">
+        <v>72</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25" t="s">
+        <v>83</v>
+      </c>
+      <c r="P25" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q25">
+        <v>3.4</v>
+      </c>
+      <c r="R25">
+        <v>2.25</v>
+      </c>
+      <c r="S25">
+        <v>3</v>
+      </c>
+      <c r="T25">
+        <v>1.33</v>
+      </c>
+      <c r="U25">
+        <v>3.25</v>
+      </c>
+      <c r="V25">
+        <v>2.63</v>
+      </c>
+      <c r="W25">
+        <v>1.44</v>
+      </c>
+      <c r="X25">
+        <v>7</v>
+      </c>
+      <c r="Y25">
+        <v>1.1</v>
+      </c>
+      <c r="Z25">
+        <v>2.78</v>
+      </c>
+      <c r="AA25">
+        <v>3.4</v>
+      </c>
+      <c r="AB25">
+        <v>2.34</v>
+      </c>
+      <c r="AC25">
+        <v>1.04</v>
+      </c>
+      <c r="AD25">
+        <v>13</v>
+      </c>
+      <c r="AE25">
+        <v>1.25</v>
+      </c>
+      <c r="AF25">
+        <v>4</v>
+      </c>
+      <c r="AG25">
+        <v>1.7</v>
+      </c>
+      <c r="AH25">
+        <v>1.95</v>
+      </c>
+      <c r="AI25">
+        <v>1.62</v>
+      </c>
+      <c r="AJ25">
+        <v>2.2</v>
+      </c>
+      <c r="AK25">
+        <v>1.65</v>
+      </c>
+      <c r="AL25">
+        <v>1.33</v>
+      </c>
+      <c r="AM25">
+        <v>1.45</v>
+      </c>
+      <c r="AN25">
+        <v>3</v>
+      </c>
+      <c r="AO25">
+        <v>1</v>
+      </c>
+      <c r="AP25">
+        <v>1.5</v>
+      </c>
+      <c r="AQ25">
+        <v>2</v>
+      </c>
+      <c r="AR25">
+        <v>0.78</v>
+      </c>
+      <c r="AS25">
+        <v>1.41</v>
+      </c>
+      <c r="AT25">
+        <v>2.19</v>
+      </c>
+      <c r="AU25">
+        <v>0</v>
+      </c>
+      <c r="AV25">
+        <v>5</v>
+      </c>
+      <c r="AW25">
+        <v>4</v>
+      </c>
+      <c r="AX25">
+        <v>3</v>
+      </c>
+      <c r="AY25">
+        <v>4</v>
+      </c>
+      <c r="AZ25">
+        <v>8</v>
+      </c>
+      <c r="BA25">
+        <v>3</v>
+      </c>
+      <c r="BB25">
+        <v>4</v>
+      </c>
+      <c r="BC25">
+        <v>7</v>
+      </c>
+      <c r="BD25">
+        <v>1.91</v>
+      </c>
+      <c r="BE25">
+        <v>8</v>
+      </c>
+      <c r="BF25">
+        <v>2.1</v>
+      </c>
+      <c r="BG25">
+        <v>1.19</v>
+      </c>
+      <c r="BH25">
+        <v>4.5</v>
+      </c>
+      <c r="BI25">
+        <v>1.35</v>
+      </c>
+      <c r="BJ25">
+        <v>3.05</v>
+      </c>
+      <c r="BK25">
+        <v>1.63</v>
+      </c>
+      <c r="BL25">
+        <v>2.2</v>
+      </c>
+      <c r="BM25">
+        <v>2.05</v>
+      </c>
+      <c r="BN25">
+        <v>1.72</v>
+      </c>
+      <c r="BO25">
+        <v>2.75</v>
+      </c>
+      <c r="BP25">
+        <v>1.42</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="124">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -383,6 +383,9 @@
   </si>
   <si>
     <t>['90']</t>
+  </si>
+  <si>
+    <t>['48']</t>
   </si>
 </sst>
 </file>
@@ -744,7 +747,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP25"/>
+  <dimension ref="A1:BP26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1699,7 +1702,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AQ5">
         <v>0</v>
@@ -3347,7 +3350,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AQ13">
         <v>1.67</v>
@@ -3556,7 +3559,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ14">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AR14">
         <v>1.95</v>
@@ -5425,19 +5428,19 @@
         <v>0</v>
       </c>
       <c r="AV23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW23">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX23">
         <v>4</v>
       </c>
       <c r="AY23">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AZ23">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA23">
         <v>7</v>
@@ -5834,31 +5837,31 @@
         <v>2.19</v>
       </c>
       <c r="AU25">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AV25">
         <v>5</v>
       </c>
       <c r="AW25">
+        <v>8</v>
+      </c>
+      <c r="AX25">
+        <v>9</v>
+      </c>
+      <c r="AY25">
+        <v>12</v>
+      </c>
+      <c r="AZ25">
+        <v>14</v>
+      </c>
+      <c r="BA25">
         <v>4</v>
       </c>
-      <c r="AX25">
-        <v>3</v>
-      </c>
-      <c r="AY25">
-        <v>4</v>
-      </c>
-      <c r="AZ25">
-        <v>8</v>
-      </c>
-      <c r="BA25">
-        <v>3</v>
-      </c>
       <c r="BB25">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BC25">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BD25">
         <v>1.91</v>
@@ -5898,6 +5901,212 @@
       </c>
       <c r="BP25">
         <v>1.42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:68">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>7325355</v>
+      </c>
+      <c r="C26" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" s="2">
+        <v>45410.52083333334</v>
+      </c>
+      <c r="F26">
+        <v>4</v>
+      </c>
+      <c r="G26" t="s">
+        <v>73</v>
+      </c>
+      <c r="H26" t="s">
+        <v>71</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26" t="s">
+        <v>83</v>
+      </c>
+      <c r="P26" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q26">
+        <v>4</v>
+      </c>
+      <c r="R26">
+        <v>2.3</v>
+      </c>
+      <c r="S26">
+        <v>2.55</v>
+      </c>
+      <c r="T26">
+        <v>1.32</v>
+      </c>
+      <c r="U26">
+        <v>3.05</v>
+      </c>
+      <c r="V26">
+        <v>2.5</v>
+      </c>
+      <c r="W26">
+        <v>1.48</v>
+      </c>
+      <c r="X26">
+        <v>6.25</v>
+      </c>
+      <c r="Y26">
+        <v>1.11</v>
+      </c>
+      <c r="Z26">
+        <v>3.35</v>
+      </c>
+      <c r="AA26">
+        <v>3.26</v>
+      </c>
+      <c r="AB26">
+        <v>1.91</v>
+      </c>
+      <c r="AC26">
+        <v>1.03</v>
+      </c>
+      <c r="AD26">
+        <v>14</v>
+      </c>
+      <c r="AE26">
+        <v>1.22</v>
+      </c>
+      <c r="AF26">
+        <v>3.9</v>
+      </c>
+      <c r="AG26">
+        <v>1.65</v>
+      </c>
+      <c r="AH26">
+        <v>2.1</v>
+      </c>
+      <c r="AI26">
+        <v>1.62</v>
+      </c>
+      <c r="AJ26">
+        <v>2.15</v>
+      </c>
+      <c r="AK26">
+        <v>1.9</v>
+      </c>
+      <c r="AL26">
+        <v>1.3</v>
+      </c>
+      <c r="AM26">
+        <v>1.3</v>
+      </c>
+      <c r="AN26">
+        <v>2</v>
+      </c>
+      <c r="AO26">
+        <v>0</v>
+      </c>
+      <c r="AP26">
+        <v>1.33</v>
+      </c>
+      <c r="AQ26">
+        <v>1.5</v>
+      </c>
+      <c r="AR26">
+        <v>1.1</v>
+      </c>
+      <c r="AS26">
+        <v>2.16</v>
+      </c>
+      <c r="AT26">
+        <v>3.26</v>
+      </c>
+      <c r="AU26">
+        <v>5</v>
+      </c>
+      <c r="AV26">
+        <v>2</v>
+      </c>
+      <c r="AW26">
+        <v>6</v>
+      </c>
+      <c r="AX26">
+        <v>7</v>
+      </c>
+      <c r="AY26">
+        <v>11</v>
+      </c>
+      <c r="AZ26">
+        <v>9</v>
+      </c>
+      <c r="BA26">
+        <v>8</v>
+      </c>
+      <c r="BB26">
+        <v>4</v>
+      </c>
+      <c r="BC26">
+        <v>12</v>
+      </c>
+      <c r="BD26">
+        <v>3.01</v>
+      </c>
+      <c r="BE26">
+        <v>8.5</v>
+      </c>
+      <c r="BF26">
+        <v>1.55</v>
+      </c>
+      <c r="BG26">
+        <v>1.21</v>
+      </c>
+      <c r="BH26">
+        <v>4.2</v>
+      </c>
+      <c r="BI26">
+        <v>1.38</v>
+      </c>
+      <c r="BJ26">
+        <v>2.88</v>
+      </c>
+      <c r="BK26">
+        <v>1.68</v>
+      </c>
+      <c r="BL26">
+        <v>2.1</v>
+      </c>
+      <c r="BM26">
+        <v>2.14</v>
+      </c>
+      <c r="BN26">
+        <v>1.66</v>
+      </c>
+      <c r="BO26">
+        <v>2.88</v>
+      </c>
+      <c r="BP26">
+        <v>1.38</v>
       </c>
     </row>
   </sheetData>
